--- a/統計管制與最佳化方法概論/homework/my_homework/midterm/Midterm Exam  R12522615.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/midterm/Midterm Exam  R12522615.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\midterm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\midterm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6423397C-F535-407B-A7D0-292134B85A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77DFD6B-1945-4ABF-A60B-ED3BA1373342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{03A7210E-A3B0-4816-8CE8-4C2A42CCA94A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{03A7210E-A3B0-4816-8CE8-4C2A42CCA94A}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1,1-5" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="128">
   <si>
     <t>probability of fifth prize</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -851,6 +851,10 @@
     <t>X^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>4獎中獎數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1159,6 +1163,15 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1168,15 +1181,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1184,17 +1188,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9846,16 +9840,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FD4705-1EED-4F7E-973F-2463947EEE40}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="58.5" customWidth="1"/>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9874,6 +9868,16 @@
       <c r="B2">
         <f>1*COMBIN(6,4)*COMBIN(42,1)/COMBIN(49,6)</f>
         <v>4.5052080204716649E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <f>COMBIN(6,4)*COMBIN(42,1)/COMBIN(49,6)</f>
+        <v>4.5052080204716649E-5</v>
+      </c>
+      <c r="B4">
+        <f>COMBIN(6,4)*COMBIN(42,1)/COMBIN(48,5)</f>
+        <v>3.6792532167185269E-4</v>
       </c>
     </row>
   </sheetData>
@@ -9887,19 +9891,19 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D51"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -9915,6 +9919,9 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
@@ -9942,6 +9949,9 @@
       <c r="D2">
         <v>1659</v>
       </c>
+      <c r="E2">
+        <v>78</v>
+      </c>
       <c r="I2">
         <f>SUM(D2:D51)</f>
         <v>125698</v>
@@ -9973,6 +9983,9 @@
       <c r="D3">
         <v>1736</v>
       </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2">
@@ -9988,6 +10001,9 @@
       <c r="D4">
         <v>1750</v>
       </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2">
@@ -10003,6 +10019,9 @@
       <c r="D5">
         <v>2037</v>
       </c>
+      <c r="E5">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2">
@@ -10018,6 +10037,9 @@
       <c r="D6">
         <v>2101</v>
       </c>
+      <c r="E6">
+        <v>139</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2">
@@ -10033,6 +10055,9 @@
       <c r="D7">
         <v>1686</v>
       </c>
+      <c r="E7">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2">
@@ -10048,6 +10073,9 @@
       <c r="D8">
         <v>1676</v>
       </c>
+      <c r="E8">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2">
@@ -10063,6 +10091,9 @@
       <c r="D9">
         <v>1608</v>
       </c>
+      <c r="E9">
+        <v>93</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2">
@@ -10078,6 +10109,9 @@
       <c r="D10">
         <v>1758</v>
       </c>
+      <c r="E10">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2">
@@ -10093,6 +10127,9 @@
       <c r="D11">
         <v>1537</v>
       </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2">
@@ -10108,6 +10145,9 @@
       <c r="D12">
         <v>1907</v>
       </c>
+      <c r="E12">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2">
@@ -10123,6 +10163,9 @@
       <c r="D13">
         <v>1607</v>
       </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2">
@@ -10138,6 +10181,9 @@
       <c r="D14">
         <v>2391</v>
       </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2">
@@ -10153,6 +10199,9 @@
       <c r="D15">
         <v>2237</v>
       </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2">
@@ -10168,8 +10217,11 @@
       <c r="D16">
         <v>2565</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>45352</v>
       </c>
@@ -10183,8 +10235,11 @@
       <c r="D17">
         <v>1873</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>45349</v>
       </c>
@@ -10198,8 +10253,11 @@
       <c r="D18">
         <v>1923</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>45346</v>
       </c>
@@ -10213,8 +10271,11 @@
       <c r="D19">
         <v>2466</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>45345</v>
       </c>
@@ -10228,8 +10289,11 @@
       <c r="D20">
         <v>2878</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>45344</v>
       </c>
@@ -10243,8 +10307,11 @@
       <c r="D21">
         <v>2445</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>45343</v>
       </c>
@@ -10258,8 +10325,11 @@
       <c r="D22">
         <v>2418</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>45342</v>
       </c>
@@ -10273,8 +10343,11 @@
       <c r="D23">
         <v>3003</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>45341</v>
       </c>
@@ -10288,8 +10361,11 @@
       <c r="D24">
         <v>2844</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>45340</v>
       </c>
@@ -10303,8 +10379,11 @@
       <c r="D25">
         <v>2970</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>45339</v>
       </c>
@@ -10318,8 +10397,11 @@
       <c r="D26">
         <v>2931</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>45338</v>
       </c>
@@ -10333,8 +10415,11 @@
       <c r="D27">
         <v>2846</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>45337</v>
       </c>
@@ -10348,8 +10433,11 @@
       <c r="D28">
         <v>3977</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>45336</v>
       </c>
@@ -10363,8 +10451,11 @@
       <c r="D29">
         <v>5332</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>45335</v>
       </c>
@@ -10378,8 +10469,11 @@
       <c r="D30">
         <v>3120</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>45334</v>
       </c>
@@ -10393,8 +10487,11 @@
       <c r="D31">
         <v>3965</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>45333</v>
       </c>
@@ -10408,8 +10505,11 @@
       <c r="D32">
         <v>4520</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>45332</v>
       </c>
@@ -10423,8 +10523,11 @@
       <c r="D33">
         <v>6475</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>45331</v>
       </c>
@@ -10438,8 +10541,11 @@
       <c r="D34">
         <v>5955</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>45330</v>
       </c>
@@ -10453,8 +10559,11 @@
       <c r="D35">
         <v>3322</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>45329</v>
       </c>
@@ -10468,8 +10577,11 @@
       <c r="D36">
         <v>2488</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>45328</v>
       </c>
@@ -10483,8 +10595,11 @@
       <c r="D37">
         <v>3845</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>45324</v>
       </c>
@@ -10498,8 +10613,11 @@
       <c r="D38">
         <v>2302</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>45321</v>
       </c>
@@ -10513,8 +10631,11 @@
       <c r="D39">
         <v>1842</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>45317</v>
       </c>
@@ -10528,8 +10649,11 @@
       <c r="D40">
         <v>1604</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>45314</v>
       </c>
@@ -10543,8 +10667,11 @@
       <c r="D41">
         <v>1712</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>45310</v>
       </c>
@@ -10558,8 +10685,11 @@
       <c r="D42">
         <v>2054</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>45307</v>
       </c>
@@ -10573,8 +10703,11 @@
       <c r="D43">
         <v>1969</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>45303</v>
       </c>
@@ -10588,8 +10721,11 @@
       <c r="D44">
         <v>1719</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <v>45300</v>
       </c>
@@ -10603,8 +10739,11 @@
       <c r="D45">
         <v>1759</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>45296</v>
       </c>
@@ -10618,8 +10757,11 @@
       <c r="D46">
         <v>1686</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>45293</v>
       </c>
@@ -10633,8 +10775,11 @@
       <c r="D47">
         <v>1708</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>45289</v>
       </c>
@@ -10648,6 +10793,9 @@
       <c r="D48">
         <v>2843</v>
       </c>
+      <c r="E48">
+        <v>156</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2">
@@ -10663,6 +10811,9 @@
       <c r="D49">
         <v>1782</v>
       </c>
+      <c r="E49">
+        <v>129</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
@@ -10678,6 +10829,9 @@
       <c r="D50">
         <v>1366</v>
       </c>
+      <c r="E50">
+        <v>61</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
@@ -10692,6 +10846,9 @@
       </c>
       <c r="D51">
         <v>1501</v>
+      </c>
+      <c r="E51">
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -11388,17 +11545,17 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="19.25" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="1.625" style="8" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="1.6328125" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -14792,18 +14949,18 @@
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="11.25" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="19.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" customWidth="1"/>
+    <col min="14" max="14" width="19.453125" customWidth="1"/>
+    <col min="15" max="15" width="20.36328125" customWidth="1"/>
     <col min="19" max="19" width="9" style="8"/>
-    <col min="20" max="20" width="12.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.90625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -16898,32 +17055,32 @@
       <selection activeCell="Q17" sqref="Q17:R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="24" max="24" width="10.375" customWidth="1"/>
+    <col min="24" max="24" width="10.36328125" customWidth="1"/>
     <col min="26" max="26" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-    </row>
-    <row r="2" spans="1:26" ht="27">
-      <c r="B2" s="31"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+    </row>
+    <row r="2" spans="1:26" ht="39">
+      <c r="B2" s="34"/>
       <c r="C2" s="11" t="s">
         <v>42</v>
       </c>
@@ -22611,20 +22768,20 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="10.125" customWidth="1"/>
-    <col min="15" max="15" width="8.125" customWidth="1"/>
-    <col min="17" max="17" width="15.125" customWidth="1"/>
-    <col min="18" max="18" width="10.75" customWidth="1"/>
-    <col min="19" max="19" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6328125" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" customWidth="1"/>
+    <col min="17" max="17" width="15.08984375" customWidth="1"/>
+    <col min="18" max="18" width="10.7265625" customWidth="1"/>
+    <col min="19" max="19" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -23258,7 +23415,7 @@
         <f t="shared" si="2"/>
         <v>accept</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="30" t="s">
         <v>82</v>
       </c>
       <c r="H12">
@@ -23311,7 +23468,7 @@
         <f t="shared" si="2"/>
         <v>accept</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="30" t="s">
         <v>83</v>
       </c>
       <c r="H13">
@@ -23365,7 +23522,7 @@
         <f t="shared" si="2"/>
         <v>reject</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="30" t="s">
         <v>84</v>
       </c>
       <c r="H14">
@@ -24626,34 +24783,34 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="15" max="15" width="14.375" customWidth="1"/>
+    <col min="15" max="15" width="14.36328125" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="18" max="18" width="11.25" customWidth="1"/>
-    <col min="19" max="19" width="11.625" customWidth="1"/>
+    <col min="18" max="18" width="11.26953125" customWidth="1"/>
+    <col min="19" max="19" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-    </row>
-    <row r="2" spans="1:24" ht="27">
-      <c r="A2" s="31"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+    </row>
+    <row r="2" spans="1:24" ht="26">
+      <c r="A2" s="34"/>
       <c r="B2" s="11" t="s">
         <v>42</v>
       </c>
@@ -24690,31 +24847,31 @@
       <c r="M2" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="U2" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="V2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="W2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="X2" s="31" t="s">
         <v>21</v>
       </c>
     </row>
@@ -24763,7 +24920,7 @@
         <f>AVERAGE(M3:M53)</f>
         <v>95.490196078431367</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="32">
         <f>O3^0.5</f>
         <v>9.7719085177068337</v>
       </c>
@@ -27743,12 +27900,12 @@
       <selection activeCell="D2" sqref="D2:D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.26953125" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -29384,12 +29541,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29400,18 +29557,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D2F6ED-10D7-4048-BC89-BF55826E62F6}">
   <dimension ref="A1:Z86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="12" max="12" width="12.25" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="18" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="9" customWidth="1"/>
@@ -29518,7 +29675,7 @@
         <v>353.25168979037204</v>
       </c>
       <c r="L2">
-        <f>_xlfn.GAMMA.INV(J2/100,$R$4,$R$5)</f>
+        <f t="shared" ref="L2:L33" si="0">_xlfn.GAMMA.INV(J2/100,$R$4,$R$5)</f>
         <v>351.47161240054709</v>
       </c>
       <c r="Q2" t="s">
@@ -29570,23 +29727,23 @@
         <v>1.5775809177026361E-2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G28" si="0">85*F3</f>
+        <f t="shared" ref="G3:G28" si="1">85*F3</f>
         <v>1.3409437800472406</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H29" si="1">(E3-G3)^2/G3</f>
+        <f t="shared" ref="H3:H28" si="2">(E3-G3)^2/G3</f>
         <v>8.6687199629507217E-2</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="2">100*(_xlfn.RANK.EQ(A3,$A$2:$A$86,1)-0.5)/85</f>
+        <f t="shared" ref="J3:J66" si="3">100*(_xlfn.RANK.EQ(A3,$A$2:$A$86,1)-0.5)/85</f>
         <v>65.294117647058826</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="3">_xlfn.GAMMA.INV(J3/100,$C$8,$C$9)</f>
+        <f t="shared" ref="K3:K66" si="4">_xlfn.GAMMA.INV(J3/100,$C$8,$C$9)</f>
         <v>353.25168979037204</v>
       </c>
       <c r="L3">
-        <f>_xlfn.GAMMA.INV(J3/100,$R$4,$R$5)</f>
+        <f t="shared" si="0"/>
         <v>351.47161240054709</v>
       </c>
       <c r="Q3" t="s">
@@ -29612,31 +29769,31 @@
         <v>335</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E27" si="4">COUNTIF($A$2:$A$86,"="&amp;D4)</f>
+        <f t="shared" ref="E4:E27" si="5">COUNTIF($A$2:$A$86,"="&amp;D4)</f>
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F27" si="5">_xlfn.GAMMA.DIST(D4,$C$8,$C$9,0)</f>
+        <f t="shared" ref="F4:F27" si="6">_xlfn.GAMMA.DIST(D4,$C$8,$C$9,0)</f>
         <v>1.7512755195350838E-2</v>
       </c>
       <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.4885841916048212</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.16036346055024406</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>65.294117647058826</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>353.25168979037204</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="0"/>
-        <v>1.4885841916048212</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>0.16036346055024406</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
-        <v>65.294117647058826</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="3"/>
-        <v>353.25168979037204</v>
-      </c>
-      <c r="L4">
-        <f>_xlfn.GAMMA.INV(J4/100,$R$4,$R$5)</f>
         <v>351.47161240054709</v>
       </c>
       <c r="Q4" t="s">
@@ -29662,31 +29819,31 @@
         <v>336</v>
       </c>
       <c r="E5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="6"/>
+        <v>1.9289253611938426E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.6395865570147663</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1.6395865570147665</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>86.470588235294116</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="5"/>
-        <v>1.9289253611938426E-2</v>
-      </c>
-      <c r="G5">
+        <v>361.71829720993651</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="0"/>
-        <v>1.6395865570147663</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>1.6395865570147665</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>86.470588235294116</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>361.71829720993651</v>
-      </c>
-      <c r="L5">
-        <f>_xlfn.GAMMA.INV(J5/100,$R$4,$R$5)</f>
         <v>354.78335531538568</v>
       </c>
       <c r="Q5" t="s">
@@ -29712,31 +29869,31 @@
         <v>337</v>
       </c>
       <c r="E6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.108116961874695E-2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>1.7918994175934908</v>
-      </c>
-      <c r="H6">
         <f t="shared" si="1"/>
         <v>1.7918994175934908</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>1.7918994175934908</v>
+      </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75.882352941176464</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>356.93117050452503</v>
       </c>
       <c r="L6">
-        <f>_xlfn.GAMMA.INV(J6/100,$R$4,$R$5)</f>
+        <f t="shared" si="0"/>
         <v>352.9147268725543</v>
       </c>
     </row>
@@ -29755,31 +29912,31 @@
         <v>338</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2861901787306182E-2</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1.9432616519210255</v>
-      </c>
-      <c r="H7">
         <f t="shared" si="1"/>
         <v>1.9432616519210255</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1.9432616519210255</v>
+      </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51.176470588235297</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>348.95585503195002</v>
       </c>
       <c r="L7">
-        <f>_xlfn.GAMMA.INV(J7/100,$R$4,$R$5)</f>
+        <f t="shared" si="0"/>
         <v>349.77907688732881</v>
       </c>
     </row>
@@ -29798,31 +29955,31 @@
         <v>339</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4603009907377654E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>2.0912558421271008</v>
-      </c>
-      <c r="H8">
         <f t="shared" si="1"/>
         <v>2.0912558421271008</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>2.0912558421271008</v>
+      </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75.882352941176464</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>356.93117050452503</v>
       </c>
       <c r="L8">
-        <f>_xlfn.GAMMA.INV(J8/100,$R$4,$R$5)</f>
+        <f t="shared" si="0"/>
         <v>352.9147268725543</v>
       </c>
     </row>
@@ -29841,31 +29998,31 @@
         <v>340</v>
       </c>
       <c r="E9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="6"/>
+        <v>2.6274959141292482E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2.2333715270098611</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.68112506371713932</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>44.117647058823529</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="5"/>
-        <v>2.6274959141292482E-2</v>
-      </c>
-      <c r="G9">
+        <v>346.87269553472817</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
-        <v>2.2333715270098611</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>0.68112506371713932</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>44.117647058823529</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>346.87269553472817</v>
-      </c>
-      <c r="L9">
-        <f>_xlfn.GAMMA.INV(J9/100,$R$4,$R$5)</f>
         <v>348.95529603354316</v>
       </c>
     </row>
@@ -29883,31 +30040,31 @@
         <v>341</v>
       </c>
       <c r="E10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="6"/>
+        <v>2.7847953895783664E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2.3670760811416116</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.78953820982727363</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>65.294117647058826</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="5"/>
-        <v>2.7847953895783664E-2</v>
-      </c>
-      <c r="G10">
+        <v>353.25168979037204</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
-        <v>2.3670760811416116</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>0.78953820982727363</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
-        <v>65.294117647058826</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
-        <v>353.25168979037204</v>
-      </c>
-      <c r="L10">
-        <f>_xlfn.GAMMA.INV(J10/100,$R$4,$R$5)</f>
         <v>351.47161240054709</v>
       </c>
     </row>
@@ -29919,31 +30076,31 @@
         <v>342</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.92928284915711E-2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>2.4898904217835436</v>
-      </c>
-      <c r="H11">
         <f t="shared" si="1"/>
         <v>2.4898904217835436</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>2.4898904217835436</v>
+      </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51.176470588235297</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>348.95585503195002</v>
       </c>
       <c r="L11">
-        <f>_xlfn.GAMMA.INV(J11/100,$R$4,$R$5)</f>
+        <f t="shared" si="0"/>
         <v>349.77907688732881</v>
       </c>
     </row>
@@ -29955,31 +30112,31 @@
         <v>343</v>
       </c>
       <c r="E12">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="6"/>
+        <v>3.0581957059223942E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>2.5994663500340351</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.13824372253113537</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>51.176470588235297</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="5"/>
-        <v>3.0581957059223942E-2</v>
-      </c>
-      <c r="G12">
+        <v>348.95585503195002</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="0"/>
-        <v>2.5994663500340351</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>0.13824372253113537</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>51.176470588235297</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
-        <v>348.95585503195002</v>
-      </c>
-      <c r="L12">
-        <f>_xlfn.GAMMA.INV(J12/100,$R$4,$R$5)</f>
         <v>349.77907688732881</v>
       </c>
     </row>
@@ -29991,31 +30148,31 @@
         <v>344</v>
       </c>
       <c r="E13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="6"/>
+        <v>3.1690142495908728E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>2.6936621121522419</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1.9747073803076249</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>65.294117647058826</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="5"/>
-        <v>3.1690142495908728E-2</v>
-      </c>
-      <c r="G13">
+        <v>353.25168979037204</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="0"/>
-        <v>2.6936621121522419</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>1.9747073803076249</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>65.294117647058826</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
-        <v>353.25168979037204</v>
-      </c>
-      <c r="L13">
-        <f>_xlfn.GAMMA.INV(J13/100,$R$4,$R$5)</f>
         <v>351.47161240054709</v>
       </c>
     </row>
@@ -30027,31 +30184,31 @@
         <v>345</v>
       </c>
       <c r="E14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="6"/>
+        <v>3.2595444030086317E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>2.7706127425573368</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.54550858210784947</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>44.117647058823529</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="5"/>
-        <v>3.2595444030086317E-2</v>
-      </c>
-      <c r="G14">
+        <v>346.87269553472817</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="0"/>
-        <v>2.7706127425573368</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>0.54550858210784947</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>44.117647058823529</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>346.87269553472817</v>
-      </c>
-      <c r="L14">
-        <f>_xlfn.GAMMA.INV(J14/100,$R$4,$R$5)</f>
         <v>348.95529603354316</v>
       </c>
     </row>
@@ -30063,31 +30220,31 @@
         <v>346</v>
       </c>
       <c r="E15">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="6"/>
+        <v>3.3279905044722932E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>2.8287919288014494</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.48491666427435914</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>51.176470588235297</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="5"/>
-        <v>3.3279905044722932E-2</v>
-      </c>
-      <c r="G15">
+        <v>348.95585503195002</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="0"/>
-        <v>2.8287919288014494</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>0.48491666427435914</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>51.176470588235297</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
-        <v>348.95585503195002</v>
-      </c>
-      <c r="L15">
-        <f>_xlfn.GAMMA.INV(J15/100,$R$4,$R$5)</f>
         <v>349.77907688732881</v>
       </c>
     </row>
@@ -30099,31 +30256,31 @@
         <v>347</v>
       </c>
       <c r="E16">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>3.3730147214291913E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>2.8670625132148126</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>1.5867886736213095</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>51.176470588235297</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="5"/>
-        <v>3.3730147214291913E-2</v>
-      </c>
-      <c r="G16">
+        <v>348.95585503195002</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="0"/>
-        <v>2.8670625132148126</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>1.5867886736213095</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>51.176470588235297</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>348.95585503195002</v>
-      </c>
-      <c r="L16">
-        <f>_xlfn.GAMMA.INV(J16/100,$R$4,$R$5)</f>
         <v>349.77907688732881</v>
       </c>
     </row>
@@ -30135,31 +30292,31 @@
         <v>348</v>
       </c>
       <c r="E17">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>3.3937803457130482E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>2.8847132938560911</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.27133289606032557</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>51.176470588235297</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="5"/>
-        <v>3.3937803457130482E-2</v>
-      </c>
-      <c r="G17">
+        <v>348.95585503195002</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="0"/>
-        <v>2.8847132938560911</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>0.27133289606032557</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>51.176470588235297</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>348.95585503195002</v>
-      </c>
-      <c r="L17">
-        <f>_xlfn.GAMMA.INV(J17/100,$R$4,$R$5)</f>
         <v>349.77907688732881</v>
       </c>
     </row>
@@ -30171,31 +30328,31 @@
         <v>349</v>
       </c>
       <c r="E18">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>3.3899770282636757E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>2.8814804740241242</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>17.585862787725958</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>99.411764705882348</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="5"/>
-        <v>3.3899770282636757E-2</v>
-      </c>
-      <c r="G18">
+        <v>379.06044555365037</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="0"/>
-        <v>2.8814804740241242</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>17.585862787725958</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>99.411764705882348</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>379.06044555365037</v>
-      </c>
-      <c r="L18">
-        <f>_xlfn.GAMMA.INV(J18/100,$R$4,$R$5)</f>
         <v>361.4716122264611</v>
       </c>
     </row>
@@ -30207,31 +30364,31 @@
         <v>350</v>
       </c>
       <c r="E19">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="6"/>
+        <v>3.3618269294680918E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>2.8575528900478782</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>3.455744904403498</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>93.529411764705884</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="5"/>
-        <v>3.3618269294680918E-2</v>
-      </c>
-      <c r="G19">
+        <v>366.73667029094275</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="0"/>
-        <v>2.8575528900478782</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>3.455744904403498</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
-        <v>93.529411764705884</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
-        <v>366.73667029094275</v>
-      </c>
-      <c r="L19">
-        <f>_xlfn.GAMMA.INV(J19/100,$R$4,$R$5)</f>
         <v>356.73165111242923</v>
       </c>
     </row>
@@ -30243,31 +30400,31 @@
         <v>351</v>
       </c>
       <c r="E20">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="6"/>
+        <v>3.3100717295675187E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>2.8135609701323911</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>29.994253881586921</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>88.82352941176471</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="5"/>
-        <v>3.3100717295675187E-2</v>
-      </c>
-      <c r="G20">
+        <v>363.11116917367622</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="0"/>
-        <v>2.8135609701323911</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>29.994253881586921</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>88.82352941176471</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
-        <v>363.11116917367622</v>
-      </c>
-      <c r="L20">
-        <f>_xlfn.GAMMA.INV(J20/100,$R$4,$R$5)</f>
         <v>355.32519099963355</v>
       </c>
     </row>
@@ -30279,31 +30436,31 @@
         <v>352</v>
       </c>
       <c r="E21">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="6"/>
+        <v>3.2359413990467413E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>2.7505501891897302</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>14.199203887038216</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>75.882352941176464</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="5"/>
-        <v>3.2359413990467413E-2</v>
-      </c>
-      <c r="G21">
+        <v>356.93117050452503</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="0"/>
-        <v>2.7505501891897302</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>14.199203887038216</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>75.882352941176464</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="3"/>
-        <v>356.93117050452503</v>
-      </c>
-      <c r="L21">
-        <f>_xlfn.GAMMA.INV(J21/100,$R$4,$R$5)</f>
         <v>352.9147268725543</v>
       </c>
     </row>
@@ -30315,31 +30472,31 @@
         <v>353</v>
       </c>
       <c r="E22">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="6"/>
+        <v>3.1411065109056384E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>2.6699405342697928</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>2.0334449566022919</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>81.764705882352942</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="5"/>
-        <v>3.1411065109056384E-2</v>
-      </c>
-      <c r="G22">
+        <v>359.37122323493179</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="0"/>
-        <v>2.6699405342697928</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>2.0334449566022919</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="2"/>
-        <v>81.764705882352942</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="3"/>
-        <v>359.37122323493179</v>
-      </c>
-      <c r="L22">
-        <f>_xlfn.GAMMA.INV(J22/100,$R$4,$R$5)</f>
         <v>353.86843532858944</v>
       </c>
     </row>
@@ -30351,31 +30508,31 @@
         <v>354</v>
       </c>
       <c r="E23">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
+        <v>3.0276166314907524E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>2.5734741367671394</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0.79075053034286347</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>88.82352941176471</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="5"/>
-        <v>3.0276166314907524E-2</v>
-      </c>
-      <c r="G23">
+        <v>363.11116917367622</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="0"/>
-        <v>2.5734741367671394</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>0.79075053034286347</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
-        <v>88.82352941176471</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="3"/>
-        <v>363.11116917367622</v>
-      </c>
-      <c r="L23">
-        <f>_xlfn.GAMMA.INV(J23/100,$R$4,$R$5)</f>
         <v>355.32519099963355</v>
       </c>
     </row>
@@ -30387,31 +30544,31 @@
         <v>355</v>
       </c>
       <c r="E24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="6"/>
+        <v>2.8978279112551981E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>2.4631537245669182</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>8.7088097848186455E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>93.529411764705884</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="5"/>
-        <v>2.8978279112551981E-2</v>
-      </c>
-      <c r="G24">
+        <v>366.73667029094275</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="0"/>
-        <v>2.4631537245669182</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>8.7088097848186455E-2</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="2"/>
-        <v>93.529411764705884</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="3"/>
-        <v>366.73667029094275</v>
-      </c>
-      <c r="L24">
-        <f>_xlfn.GAMMA.INV(J24/100,$R$4,$R$5)</f>
         <v>356.73165111242923</v>
       </c>
     </row>
@@ -30423,31 +30580,31 @@
         <v>356</v>
       </c>
       <c r="E25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="6"/>
+        <v>2.7543233821995191E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>2.3411748748695911</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>1.1753503872354658</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>93.529411764705884</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="5"/>
-        <v>2.7543233821995191E-2</v>
-      </c>
-      <c r="G25">
+        <v>366.73667029094275</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="0"/>
-        <v>2.3411748748695911</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>1.1753503872354658</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="2"/>
-        <v>93.529411764705884</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="3"/>
-        <v>366.73667029094275</v>
-      </c>
-      <c r="L25">
-        <f>_xlfn.GAMMA.INV(J25/100,$R$4,$R$5)</f>
         <v>356.73165111242923</v>
       </c>
     </row>
@@ -30459,31 +30616,31 @@
         <v>357</v>
       </c>
       <c r="E26">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="6"/>
+        <v>2.5998296408273537E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>2.2098551947032505</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>1.4501486032261348</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>88.82352941176471</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="5"/>
-        <v>2.5998296408273537E-2</v>
-      </c>
-      <c r="G26">
+        <v>363.11116917367622</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="0"/>
-        <v>2.2098551947032505</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>1.4501486032261348</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="2"/>
-        <v>88.82352941176471</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="3"/>
-        <v>363.11116917367622</v>
-      </c>
-      <c r="L26">
-        <f>_xlfn.GAMMA.INV(J26/100,$R$4,$R$5)</f>
         <v>355.32519099963355</v>
       </c>
     </row>
@@ -30495,31 +30652,31 @@
         <v>358</v>
       </c>
       <c r="E27">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="6"/>
+        <v>2.4371335556739707E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>2.071563522322875</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>0.55429069396117703</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="5"/>
-        <v>2.4371335556739707E-2</v>
-      </c>
-      <c r="G27">
+        <v>326.87073238623287</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="0"/>
-        <v>2.071563522322875</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>0.55429069396117703</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="2"/>
-        <v>2.9411764705882355</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="3"/>
-        <v>326.87073238623287</v>
-      </c>
-      <c r="L27">
-        <f>_xlfn.GAMMA.INV(J27/100,$R$4,$R$5)</f>
         <v>340.94055570947887</v>
       </c>
     </row>
@@ -30539,23 +30696,23 @@
         <v>0.21419276831666678</v>
       </c>
       <c r="G28">
+        <f t="shared" si="1"/>
+        <v>18.206385306916676</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>16.261311091642327</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>51.176470588235297</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>348.95585503195002</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="0"/>
-        <v>18.206385306916676</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>16.261311091642327</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="2"/>
-        <v>51.176470588235297</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="3"/>
-        <v>348.95585503195002</v>
-      </c>
-      <c r="L28">
-        <f>_xlfn.GAMMA.INV(J28/100,$R$4,$R$5)</f>
         <v>349.77907688732881</v>
       </c>
     </row>
@@ -30571,27 +30728,27 @@
         <v>85</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:H29" si="6">SUM(F2:F28)</f>
+        <f t="shared" ref="F29:H29" si="7">SUM(F2:F28)</f>
         <v>1.004016986352438</v>
       </c>
       <c r="G29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>85.341443839957236</v>
       </c>
       <c r="H29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>109.86895187909712</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.352941176470587</v>
       </c>
       <c r="K29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>343.25561520735636</v>
       </c>
       <c r="L29">
-        <f>_xlfn.GAMMA.INV(J29/100,$R$4,$R$5)</f>
+        <f t="shared" si="0"/>
         <v>347.52015751665556</v>
       </c>
       <c r="S29" t="str" cm="1">
@@ -30633,15 +30790,15 @@
         <v>42.855834787923598</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81.764705882352942</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>359.37122323493179</v>
       </c>
       <c r="L30">
-        <f>_xlfn.GAMMA.INV(J30/100,$R$4,$R$5)</f>
+        <f t="shared" si="0"/>
         <v>353.86843532858944</v>
       </c>
       <c r="S30" t="str">
@@ -30682,15 +30839,15 @@
         <v>109.86895187909712</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75.882352941176464</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>356.93117050452503</v>
       </c>
       <c r="L31">
-        <f>_xlfn.GAMMA.INV(J31/100,$R$4,$R$5)</f>
+        <f t="shared" si="0"/>
         <v>352.9147268725543</v>
       </c>
       <c r="S31">
@@ -30730,15 +30887,15 @@
         <v>2.7825072864962459E-12</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81.764705882352942</v>
       </c>
       <c r="K32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>359.37122323493179</v>
       </c>
       <c r="L32">
-        <f>_xlfn.GAMMA.INV(J32/100,$R$4,$R$5)</f>
+        <f t="shared" si="0"/>
         <v>353.86843532858944</v>
       </c>
       <c r="S32">
@@ -30771,15 +30928,15 @@
         <v>352</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65.294117647058826</v>
       </c>
       <c r="K33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>353.25168979037204</v>
       </c>
       <c r="L33">
-        <f>_xlfn.GAMMA.INV(J33/100,$R$4,$R$5)</f>
+        <f t="shared" si="0"/>
         <v>351.47161240054709</v>
       </c>
       <c r="S33">
@@ -30812,15 +30969,15 @@
         <v>351</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51.176470588235297</v>
       </c>
       <c r="K34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>348.95585503195002</v>
       </c>
       <c r="L34">
-        <f>_xlfn.GAMMA.INV(J34/100,$R$4,$R$5)</f>
+        <f t="shared" ref="L34:L65" si="8">_xlfn.GAMMA.INV(J34/100,$R$4,$R$5)</f>
         <v>349.77907688732881</v>
       </c>
       <c r="S34">
@@ -30853,15 +31010,15 @@
         <v>349</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.352941176470587</v>
       </c>
       <c r="K35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>343.25561520735636</v>
       </c>
       <c r="L35">
-        <f>_xlfn.GAMMA.INV(J35/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>347.52015751665556</v>
       </c>
       <c r="S35">
@@ -30894,15 +31051,15 @@
         <v>349</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.352941176470587</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>343.25561520735636</v>
       </c>
       <c r="L36">
-        <f>_xlfn.GAMMA.INV(J36/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>347.52015751665556</v>
       </c>
       <c r="S36">
@@ -30935,15 +31092,15 @@
         <v>349</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.352941176470587</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>343.25561520735636</v>
       </c>
       <c r="L37">
-        <f>_xlfn.GAMMA.INV(J37/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>347.52015751665556</v>
       </c>
       <c r="S37">
@@ -30976,15 +31133,15 @@
         <v>344</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.8235294117647065</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>332.96294728542796</v>
       </c>
       <c r="L38">
-        <f>_xlfn.GAMMA.INV(J38/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>343.40236471817218</v>
       </c>
       <c r="S38">
@@ -31017,15 +31174,15 @@
         <v>355</v>
       </c>
       <c r="J39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86.470588235294116</v>
       </c>
       <c r="K39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>361.71829720993651</v>
       </c>
       <c r="L39">
-        <f>_xlfn.GAMMA.INV(J39/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>354.78335531538568</v>
       </c>
       <c r="S39">
@@ -31058,15 +31215,15 @@
         <v>350</v>
       </c>
       <c r="J40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44.117647058823529</v>
       </c>
       <c r="K40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>346.87269553472817</v>
       </c>
       <c r="L40">
-        <f>_xlfn.GAMMA.INV(J40/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>348.95529603354316</v>
       </c>
       <c r="S40">
@@ -31099,15 +31256,15 @@
         <v>358</v>
       </c>
       <c r="J41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98.235294117647058</v>
       </c>
       <c r="K41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>373.93746794309965</v>
       </c>
       <c r="L41">
-        <f>_xlfn.GAMMA.INV(J41/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>359.5087637744823</v>
       </c>
       <c r="S41">
@@ -31140,15 +31297,15 @@
         <v>352</v>
       </c>
       <c r="J42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65.294117647058826</v>
       </c>
       <c r="K42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>353.25168979037204</v>
       </c>
       <c r="L42">
-        <f>_xlfn.GAMMA.INV(J42/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>351.47161240054709</v>
       </c>
       <c r="S42">
@@ -31181,15 +31338,15 @@
         <v>334</v>
       </c>
       <c r="J43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7647058823529411</v>
       </c>
       <c r="K43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>324.45116492342908</v>
       </c>
       <c r="L43">
-        <f>_xlfn.GAMMA.INV(J43/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>339.95761715090043</v>
       </c>
       <c r="S43">
@@ -31210,15 +31367,15 @@
         <v>349</v>
       </c>
       <c r="J44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.352941176470587</v>
       </c>
       <c r="K44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>343.25561520735636</v>
       </c>
       <c r="L44">
-        <f>_xlfn.GAMMA.INV(J44/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>347.52015751665556</v>
       </c>
     </row>
@@ -31227,15 +31384,15 @@
         <v>352</v>
       </c>
       <c r="J45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65.294117647058826</v>
       </c>
       <c r="K45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>353.25168979037204</v>
       </c>
       <c r="L45">
-        <f>_xlfn.GAMMA.INV(J45/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>351.47161240054709</v>
       </c>
     </row>
@@ -31244,15 +31401,15 @@
         <v>351</v>
       </c>
       <c r="J46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51.176470588235297</v>
       </c>
       <c r="K46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>348.95585503195002</v>
       </c>
       <c r="L46">
-        <f>_xlfn.GAMMA.INV(J46/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>349.77907688732881</v>
       </c>
     </row>
@@ -31261,15 +31418,15 @@
         <v>352</v>
       </c>
       <c r="J47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65.294117647058826</v>
       </c>
       <c r="K47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>353.25168979037204</v>
       </c>
       <c r="L47">
-        <f>_xlfn.GAMMA.INV(J47/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>351.47161240054709</v>
       </c>
     </row>
@@ -31278,15 +31435,15 @@
         <v>353</v>
       </c>
       <c r="J48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75.882352941176464</v>
       </c>
       <c r="K48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>356.93117050452503</v>
       </c>
       <c r="L48">
-        <f>_xlfn.GAMMA.INV(J48/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>352.9147268725543</v>
       </c>
     </row>
@@ -31295,15 +31452,15 @@
         <v>252</v>
       </c>
       <c r="J49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="K49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>319.83402873144468</v>
       </c>
       <c r="L49">
-        <f>_xlfn.GAMMA.INV(J49/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>338.07351752499596</v>
       </c>
     </row>
@@ -31312,15 +31469,15 @@
         <v>356</v>
       </c>
       <c r="J50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88.82352941176471</v>
       </c>
       <c r="K50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>363.11116917367622</v>
       </c>
       <c r="L50">
-        <f>_xlfn.GAMMA.INV(J50/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>355.32519099963355</v>
       </c>
     </row>
@@ -31329,15 +31486,15 @@
         <v>351</v>
       </c>
       <c r="J51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51.176470588235297</v>
       </c>
       <c r="K51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>348.95585503195002</v>
       </c>
       <c r="L51">
-        <f>_xlfn.GAMMA.INV(J51/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>349.77907688732881</v>
       </c>
     </row>
@@ -31346,15 +31503,15 @@
         <v>351</v>
       </c>
       <c r="J52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51.176470588235297</v>
       </c>
       <c r="K52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>348.95585503195002</v>
       </c>
       <c r="L52">
-        <f>_xlfn.GAMMA.INV(J52/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>349.77907688732881</v>
       </c>
     </row>
@@ -31363,15 +31520,15 @@
         <v>354</v>
       </c>
       <c r="J53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81.764705882352942</v>
       </c>
       <c r="K53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>359.37122323493179</v>
       </c>
       <c r="L53">
-        <f>_xlfn.GAMMA.INV(J53/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>353.86843532858944</v>
       </c>
     </row>
@@ -31380,15 +31537,15 @@
         <v>348</v>
       </c>
       <c r="J54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>342.4820856874357</v>
       </c>
       <c r="L54">
-        <f>_xlfn.GAMMA.INV(J54/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>347.21245223587272</v>
       </c>
     </row>
@@ -31397,15 +31554,15 @@
         <v>350</v>
       </c>
       <c r="J55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44.117647058823529</v>
       </c>
       <c r="K55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>346.87269553472817</v>
       </c>
       <c r="L55">
-        <f>_xlfn.GAMMA.INV(J55/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>348.95529603354316</v>
       </c>
     </row>
@@ -31414,15 +31571,15 @@
         <v>349</v>
       </c>
       <c r="J56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.352941176470587</v>
       </c>
       <c r="K56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>343.25561520735636</v>
       </c>
       <c r="L56">
-        <f>_xlfn.GAMMA.INV(J56/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>347.52015751665556</v>
       </c>
     </row>
@@ -31431,15 +31588,15 @@
         <v>349</v>
       </c>
       <c r="J57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.352941176470587</v>
       </c>
       <c r="K57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>343.25561520735636</v>
       </c>
       <c r="L57">
-        <f>_xlfn.GAMMA.INV(J57/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>347.52015751665556</v>
       </c>
     </row>
@@ -31448,15 +31605,15 @@
         <v>350</v>
       </c>
       <c r="J58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44.117647058823529</v>
       </c>
       <c r="K58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>346.87269553472817</v>
       </c>
       <c r="L58">
-        <f>_xlfn.GAMMA.INV(J58/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>348.95529603354316</v>
       </c>
     </row>
@@ -31465,15 +31622,15 @@
         <v>346</v>
       </c>
       <c r="J59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.411764705882351</v>
       </c>
       <c r="K59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>338.56643985285092</v>
       </c>
       <c r="L59">
-        <f>_xlfn.GAMMA.INV(J59/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>345.65048104913586</v>
       </c>
     </row>
@@ -31482,15 +31639,15 @@
         <v>346</v>
       </c>
       <c r="J60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.411764705882351</v>
       </c>
       <c r="K60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>338.56643985285092</v>
       </c>
       <c r="L60">
-        <f>_xlfn.GAMMA.INV(J60/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>345.65048104913586</v>
       </c>
     </row>
@@ -31499,15 +31656,15 @@
         <v>349</v>
       </c>
       <c r="J61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.352941176470587</v>
       </c>
       <c r="K61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>343.25561520735636</v>
       </c>
       <c r="L61">
-        <f>_xlfn.GAMMA.INV(J61/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>347.52015751665556</v>
       </c>
     </row>
@@ -31516,15 +31673,15 @@
         <v>350</v>
       </c>
       <c r="J62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44.117647058823529</v>
       </c>
       <c r="K62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>346.87269553472817</v>
       </c>
       <c r="L62">
-        <f>_xlfn.GAMMA.INV(J62/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>348.95529603354316</v>
       </c>
     </row>
@@ -31533,15 +31690,15 @@
         <v>351</v>
       </c>
       <c r="J63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51.176470588235297</v>
       </c>
       <c r="K63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>348.95585503195002</v>
       </c>
       <c r="L63">
-        <f>_xlfn.GAMMA.INV(J63/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>349.77907688732881</v>
       </c>
     </row>
@@ -31550,15 +31707,15 @@
         <v>344</v>
       </c>
       <c r="J64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.8235294117647065</v>
       </c>
       <c r="K64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>332.96294728542796</v>
       </c>
       <c r="L64">
-        <f>_xlfn.GAMMA.INV(J64/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>343.40236471817218</v>
       </c>
     </row>
@@ -31567,15 +31724,15 @@
         <v>348</v>
       </c>
       <c r="J65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>342.4820856874357</v>
       </c>
       <c r="L65">
-        <f>_xlfn.GAMMA.INV(J65/100,$R$4,$R$5)</f>
+        <f t="shared" si="8"/>
         <v>347.21245223587272</v>
       </c>
     </row>
@@ -31584,15 +31741,15 @@
         <v>349</v>
       </c>
       <c r="J66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.352941176470587</v>
       </c>
       <c r="K66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>343.25561520735636</v>
       </c>
       <c r="L66">
-        <f>_xlfn.GAMMA.INV(J66/100,$R$4,$R$5)</f>
+        <f t="shared" ref="L66:L86" si="9">_xlfn.GAMMA.INV(J66/100,$R$4,$R$5)</f>
         <v>347.52015751665556</v>
       </c>
     </row>
@@ -31601,15 +31758,15 @@
         <v>341</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J86" si="7">100*(_xlfn.RANK.EQ(A67,$A$2:$A$86,1)-0.5)/85</f>
+        <f t="shared" ref="J67:J86" si="10">100*(_xlfn.RANK.EQ(A67,$A$2:$A$86,1)-0.5)/85</f>
         <v>5.2941176470588234</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K86" si="8">_xlfn.GAMMA.INV(J67/100,$C$8,$C$9)</f>
+        <f t="shared" ref="K67:K86" si="11">_xlfn.GAMMA.INV(J67/100,$C$8,$C$9)</f>
         <v>329.94848601695355</v>
       </c>
       <c r="L67">
-        <f>_xlfn.GAMMA.INV(J67/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>342.1865750483845</v>
       </c>
     </row>
@@ -31618,15 +31775,15 @@
         <v>346</v>
       </c>
       <c r="J68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>19.411764705882351</v>
       </c>
       <c r="K68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>338.56643985285092</v>
       </c>
       <c r="L68">
-        <f>_xlfn.GAMMA.INV(J68/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>345.65048104913586</v>
       </c>
     </row>
@@ -31635,15 +31792,15 @@
         <v>347</v>
       </c>
       <c r="J69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>24.117647058823529</v>
       </c>
       <c r="K69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340.41740016646418</v>
       </c>
       <c r="L69">
-        <f>_xlfn.GAMMA.INV(J69/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>346.38974844340123</v>
       </c>
     </row>
@@ -31652,15 +31809,15 @@
         <v>345</v>
       </c>
       <c r="J70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>14.705882352941176</v>
       </c>
       <c r="K70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>336.42360535677733</v>
       </c>
       <c r="L70">
-        <f>_xlfn.GAMMA.INV(J70/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>344.7925824939191</v>
       </c>
     </row>
@@ -31669,15 +31826,15 @@
         <v>345</v>
       </c>
       <c r="J71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>14.705882352941176</v>
       </c>
       <c r="K71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>336.42360535677733</v>
       </c>
       <c r="L71">
-        <f>_xlfn.GAMMA.INV(J71/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>344.7925824939191</v>
       </c>
     </row>
@@ -31686,15 +31843,15 @@
         <v>347</v>
       </c>
       <c r="J72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>24.117647058823529</v>
       </c>
       <c r="K72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340.41740016646418</v>
       </c>
       <c r="L72">
-        <f>_xlfn.GAMMA.INV(J72/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>346.38974844340123</v>
       </c>
     </row>
@@ -31703,15 +31860,15 @@
         <v>340</v>
       </c>
       <c r="J73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.117647058823529</v>
       </c>
       <c r="K73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>328.58850254444394</v>
       </c>
       <c r="L73">
-        <f>_xlfn.GAMMA.INV(J73/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>341.636580016479</v>
       </c>
     </row>
@@ -31720,15 +31877,15 @@
         <v>345</v>
       </c>
       <c r="J74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>14.705882352941176</v>
       </c>
       <c r="K74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>336.42360535677733</v>
       </c>
       <c r="L74">
-        <f>_xlfn.GAMMA.INV(J74/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>344.7925824939191</v>
       </c>
     </row>
@@ -31737,15 +31894,15 @@
         <v>344</v>
       </c>
       <c r="J75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.8235294117647065</v>
       </c>
       <c r="K75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>332.96294728542796</v>
       </c>
       <c r="L75">
-        <f>_xlfn.GAMMA.INV(J75/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>343.40236471817218</v>
       </c>
     </row>
@@ -31754,15 +31911,15 @@
         <v>343</v>
       </c>
       <c r="J76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.4705882352941178</v>
       </c>
       <c r="K76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>331.08897528765721</v>
       </c>
       <c r="L76">
-        <f>_xlfn.GAMMA.INV(J76/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>342.64708836540768</v>
       </c>
     </row>
@@ -31771,15 +31928,15 @@
         <v>357</v>
       </c>
       <c r="J77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>93.529411764705884</v>
       </c>
       <c r="K77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>366.73667029094275</v>
       </c>
       <c r="L77">
-        <f>_xlfn.GAMMA.INV(J77/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>356.73165111242923</v>
       </c>
     </row>
@@ -31788,15 +31945,15 @@
         <v>343</v>
       </c>
       <c r="J78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.4705882352941178</v>
       </c>
       <c r="K78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>331.08897528765721</v>
       </c>
       <c r="L78">
-        <f>_xlfn.GAMMA.INV(J78/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>342.64708836540768</v>
       </c>
     </row>
@@ -31805,15 +31962,15 @@
         <v>345</v>
       </c>
       <c r="J79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>14.705882352941176</v>
       </c>
       <c r="K79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>336.42360535677733</v>
       </c>
       <c r="L79">
-        <f>_xlfn.GAMMA.INV(J79/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>344.7925824939191</v>
       </c>
     </row>
@@ -31822,15 +31979,15 @@
         <v>347</v>
       </c>
       <c r="J80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>24.117647058823529</v>
       </c>
       <c r="K80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340.41740016646418</v>
       </c>
       <c r="L80">
-        <f>_xlfn.GAMMA.INV(J80/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>346.38974844340123</v>
       </c>
     </row>
@@ -31839,15 +31996,15 @@
         <v>346</v>
       </c>
       <c r="J81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>19.411764705882351</v>
       </c>
       <c r="K81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>338.56643985285092</v>
       </c>
       <c r="L81">
-        <f>_xlfn.GAMMA.INV(J81/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>345.65048104913586</v>
       </c>
     </row>
@@ -31856,15 +32013,15 @@
         <v>347</v>
       </c>
       <c r="J82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>24.117647058823529</v>
       </c>
       <c r="K82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340.41740016646418</v>
       </c>
       <c r="L82">
-        <f>_xlfn.GAMMA.INV(J82/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>346.38974844340123</v>
       </c>
     </row>
@@ -31873,15 +32030,15 @@
         <v>347</v>
       </c>
       <c r="J83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>24.117647058823529</v>
       </c>
       <c r="K83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>340.41740016646418</v>
       </c>
       <c r="L83">
-        <f>_xlfn.GAMMA.INV(J83/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>346.38974844340123</v>
       </c>
     </row>
@@ -31890,15 +32047,15 @@
         <v>344</v>
       </c>
       <c r="J84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.8235294117647065</v>
       </c>
       <c r="K84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>332.96294728542796</v>
       </c>
       <c r="L84">
-        <f>_xlfn.GAMMA.INV(J84/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>343.40236471817218</v>
       </c>
     </row>
@@ -31907,15 +32064,15 @@
         <v>349</v>
       </c>
       <c r="J85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>32.352941176470587</v>
       </c>
       <c r="K85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>343.25561520735636</v>
       </c>
       <c r="L85">
-        <f>_xlfn.GAMMA.INV(J85/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>347.52015751665556</v>
       </c>
     </row>
@@ -31924,15 +32081,15 @@
         <v>344</v>
       </c>
       <c r="J86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.8235294117647065</v>
       </c>
       <c r="K86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>332.96294728542796</v>
       </c>
       <c r="L86">
-        <f>_xlfn.GAMMA.INV(J86/100,$R$4,$R$5)</f>
+        <f t="shared" si="9"/>
         <v>343.40236471817218</v>
       </c>
     </row>

--- a/統計管制與最佳化方法概論/homework/my_homework/midterm/Midterm Exam  R12522615.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/midterm/Midterm Exam  R12522615.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\midterm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFC6EC2-EF6C-4F3C-98D5-28511F8CB81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D661A43-016A-4792-BDDE-8C5673F53274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{03A7210E-A3B0-4816-8CE8-4C2A42CCA94A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="12" xr2:uid="{03A7210E-A3B0-4816-8CE8-4C2A42CCA94A}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1,1-5" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="3-3" sheetId="9" r:id="rId9"/>
     <sheet name="3-4" sheetId="10" r:id="rId10"/>
     <sheet name="3-5" sheetId="11" r:id="rId11"/>
+    <sheet name="3-6" sheetId="12" r:id="rId12"/>
+    <sheet name="3-7" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'2-2,2-3'!$J$7</definedName>
@@ -95,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="176">
   <si>
     <t>probability of fifth prize</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1009,6 +1011,137 @@
     <t>New process mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>δ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>δ*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_i^+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_i^-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new process mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1020,7 +1153,7 @@
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="###,###,##0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1093,6 +1226,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="161"/>
     </font>
   </fonts>
@@ -1239,7 +1379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1360,11 +1500,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8691,6 +8854,1635 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>optimal Tabular CUSUM chart </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-6'!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c_i^+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3-6'!$O$3:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3-6'!$W$3:$W$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.0940638193961263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5881276387922867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8940638193961377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7881276387922753</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4821914581884243</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.376255277584562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.070319096980711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.364382916376826</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4584467357729523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F295-48C3-ABC2-59F849B8382C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-6'!$Z$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c_i^-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3-6'!$O$3:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3-6'!$Z$3:$Z$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-28.294063819396115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15.188127638792253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.0821914581883902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.694063819396149</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.0940638193961263</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.69406381939614903</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F295-48C3-ABC2-59F849B8382C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1221671744"/>
+        <c:axId val="1221660096"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-6'!$AB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3-6'!$AB$3:$AB$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16.986288703677289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F295-48C3-ABC2-59F849B8382C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-6'!$AC$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3-6'!$AC$3:$AC$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-16.986288703677289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F295-48C3-ABC2-59F849B8382C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1221671744"/>
+        <c:axId val="1221660096"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-6'!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3-6'!$U$3:$U$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>355.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>355.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>317.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>354.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>351.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>353.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>352.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>348.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>349.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>349.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>352.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>353.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>351.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>352.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>344.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>350.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>349.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>348.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>348.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>350.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>343.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>349.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>348.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>346.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>346.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>349.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>350.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>349.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>351.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>345.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>353.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F295-48C3-ABC2-59F849B8382C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1221669664"/>
+        <c:axId val="1221672160"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="1221671744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>wafer nuber</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221660096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1221660096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>C^-&lt;--&gt;C^+</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221671744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1221672160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>x_i</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221669664"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1221669664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1221672160"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -17541,6 +19333,46 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -20468,6 +22300,522 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25742,6 +28090,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799B6303-425A-48BE-AD3C-D314874CD63D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -32165,18 +34554,18 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:G47">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>$X$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>$X$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H47">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>$Z$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>$Z$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32189,8 +34578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4D3C0D-542E-4A6E-86BD-ABD10B135541}">
   <dimension ref="A1:AV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AH45" sqref="AH45"/>
+    <sheetView topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -38231,27 +40620,3663 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AF3:AF42">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>$K$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3:AI42">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>-$K$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA42">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>-$K$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X42">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>$K$20</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375C4816-A6CA-4843-93DB-254B776CE598}">
+  <dimension ref="A1:AC47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="15" max="15" width="12.25" customWidth="1"/>
+    <col min="16" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="12.625" customWidth="1"/>
+    <col min="25" max="25" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1">
+        <f>1.6</f>
+        <v>1.6</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2">
+        <f>B1/2</f>
+        <v>0.8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGE(L3:L47)</f>
+        <v>354.39111111111112</v>
+      </c>
+      <c r="O2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" t="s">
+        <v>151</v>
+      </c>
+      <c r="W2" t="s">
+        <v>170</v>
+      </c>
+      <c r="X2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3">
+        <v>4.4756059863607636</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>355</v>
+      </c>
+      <c r="H3">
+        <v>351</v>
+      </c>
+      <c r="I3">
+        <v>356</v>
+      </c>
+      <c r="J3">
+        <v>352</v>
+      </c>
+      <c r="K3">
+        <v>359</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(G3:K3)</f>
+        <v>354.6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3">
+        <f>_xlfn.VAR.S(L3:L47)</f>
+        <v>26.341737373737384</v>
+      </c>
+      <c r="O3">
+        <v>46</v>
+      </c>
+      <c r="P3">
+        <v>351</v>
+      </c>
+      <c r="Q3">
+        <v>352</v>
+      </c>
+      <c r="R3">
+        <v>361</v>
+      </c>
+      <c r="S3">
+        <v>352</v>
+      </c>
+      <c r="T3">
+        <v>360</v>
+      </c>
+      <c r="U3">
+        <f>AVERAGE(P3:T3)</f>
+        <v>355.2</v>
+      </c>
+      <c r="V3">
+        <f>U3-($N$5+$N$6)</f>
+        <v>1.0940638193961263</v>
+      </c>
+      <c r="W3">
+        <f>MAX(0,V3)</f>
+        <v>1.0940638193961263</v>
+      </c>
+      <c r="X3">
+        <f>IF(W3&gt;1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <f>U3-($N$5-$N$6)</f>
+        <v>9.305936180603851</v>
+      </c>
+      <c r="Z3">
+        <f>MIN(0,Y3)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f>IF(Z3&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f>$N$7</f>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC3">
+        <f>-$N$7</f>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <f>(EXP(2*B2*B3)-1-2*B2*B3)/(2*B2)^2</f>
+        <v>499.99934733618124</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>353</v>
+      </c>
+      <c r="H4">
+        <v>351</v>
+      </c>
+      <c r="I4">
+        <v>359</v>
+      </c>
+      <c r="J4">
+        <v>352</v>
+      </c>
+      <c r="K4">
+        <v>354</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L47" si="0">AVERAGE(G4:K4)</f>
+        <v>353.8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <f>N3^0.5</f>
+        <v>5.1324202257548421</v>
+      </c>
+      <c r="O4">
+        <v>47</v>
+      </c>
+      <c r="P4">
+        <v>351</v>
+      </c>
+      <c r="Q4">
+        <v>353</v>
+      </c>
+      <c r="R4">
+        <v>360</v>
+      </c>
+      <c r="S4">
+        <v>353</v>
+      </c>
+      <c r="T4">
+        <v>361</v>
+      </c>
+      <c r="U4">
+        <f>AVERAGE(P4:T4)</f>
+        <v>355.6</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V47" si="1">U4-($N$5+$N$6)</f>
+        <v>1.4940638193961604</v>
+      </c>
+      <c r="W4">
+        <f>MAX(0,V4+W3)</f>
+        <v>2.5881276387922867</v>
+      </c>
+      <c r="X4">
+        <f>IF(W4&gt;0,1+X3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y47" si="2">U4-($N$5-$N$6)</f>
+        <v>9.7059361806038851</v>
+      </c>
+      <c r="Z4">
+        <f>MIN(0,Y4+Z3)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>IF(Z4&lt;0,1+AA3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB42" si="3">$N$7</f>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" ref="AC4:AC42" si="4">-$N$7</f>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5">
+        <f>B3-1.166</f>
+        <v>3.3096059863607636</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>351</v>
+      </c>
+      <c r="H5">
+        <v>351</v>
+      </c>
+      <c r="I5">
+        <v>357</v>
+      </c>
+      <c r="J5">
+        <v>352</v>
+      </c>
+      <c r="K5">
+        <v>357</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>353.6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N5">
+        <v>350</v>
+      </c>
+      <c r="O5">
+        <v>48</v>
+      </c>
+      <c r="P5">
+        <v>355</v>
+      </c>
+      <c r="Q5">
+        <v>355</v>
+      </c>
+      <c r="R5">
+        <v>262</v>
+      </c>
+      <c r="S5">
+        <v>252</v>
+      </c>
+      <c r="T5">
+        <v>364</v>
+      </c>
+      <c r="U5">
+        <f>AVERAGE(P5:T5)</f>
+        <v>317.60000000000002</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>-36.50593618060384</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W47" si="5">MAX(0,V5+W4)</f>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X42" si="6">IF(W5&gt;0,1+X4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="2"/>
+        <v>-28.294063819396115</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z47" si="7">MIN(0,Y5+Z4)</f>
+        <v>-28.294063819396115</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA42" si="8">IF(Z5&lt;0,1+AA4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>353</v>
+      </c>
+      <c r="H6">
+        <v>357</v>
+      </c>
+      <c r="I6">
+        <v>362</v>
+      </c>
+      <c r="J6">
+        <v>355</v>
+      </c>
+      <c r="K6">
+        <v>361</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>357.6</v>
+      </c>
+      <c r="M6" t="s">
+        <v>147</v>
+      </c>
+      <c r="N6">
+        <f>$B$2*$N$4</f>
+        <v>4.1059361806038739</v>
+      </c>
+      <c r="O6">
+        <v>49</v>
+      </c>
+      <c r="P6">
+        <v>356</v>
+      </c>
+      <c r="Q6">
+        <v>355</v>
+      </c>
+      <c r="R6">
+        <v>364</v>
+      </c>
+      <c r="S6">
+        <v>356</v>
+      </c>
+      <c r="T6">
+        <v>364</v>
+      </c>
+      <c r="U6">
+        <f>AVERAGE(P6:T6)</f>
+        <v>359</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>4.8940638193961377</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="5"/>
+        <v>4.8940638193961377</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="2"/>
+        <v>13.105936180603862</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="7"/>
+        <v>-15.188127638792253</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>350</v>
+      </c>
+      <c r="H7">
+        <v>353</v>
+      </c>
+      <c r="I7">
+        <v>356</v>
+      </c>
+      <c r="J7">
+        <v>353</v>
+      </c>
+      <c r="K7">
+        <v>357</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>353.8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7">
+        <f>$B$5*$N$4</f>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="O7">
+        <v>50</v>
+      </c>
+      <c r="P7">
+        <v>351</v>
+      </c>
+      <c r="Q7">
+        <v>350</v>
+      </c>
+      <c r="R7">
+        <v>359</v>
+      </c>
+      <c r="S7">
+        <v>351</v>
+      </c>
+      <c r="T7">
+        <v>359</v>
+      </c>
+      <c r="U7">
+        <f>AVERAGE(P7:T7)</f>
+        <v>354</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>-0.10593618060386234</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>4.7881276387922753</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="2"/>
+        <v>8.1059361806038623</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="7"/>
+        <v>-7.0821914581883902</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <f>B8/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="D8">
+        <f>$B$3</f>
+        <v>4.4756059863607636</v>
+      </c>
+      <c r="E8">
+        <f>(B8^2/2/(EXP(-B8*D8)-1+B8*D8)+(3*B8)^2/2/(EXP(3*B8*D8)-1-3*B8*D8))^-1</f>
+        <v>10.598730971117632</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>351</v>
+      </c>
+      <c r="H8">
+        <v>351</v>
+      </c>
+      <c r="I8">
+        <v>353</v>
+      </c>
+      <c r="J8">
+        <v>351</v>
+      </c>
+      <c r="K8">
+        <v>356</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>352.4</v>
+      </c>
+      <c r="O8">
+        <v>51</v>
+      </c>
+      <c r="P8">
+        <v>352</v>
+      </c>
+      <c r="Q8">
+        <v>351</v>
+      </c>
+      <c r="R8">
+        <v>360</v>
+      </c>
+      <c r="S8">
+        <v>351</v>
+      </c>
+      <c r="T8">
+        <v>360</v>
+      </c>
+      <c r="U8">
+        <f>AVERAGE(P8:T8)</f>
+        <v>354.8</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>0.69406381939614903</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="5"/>
+        <v>5.4821914581884243</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="2"/>
+        <v>8.9059361806038737</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:C11" si="9">B9/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D11" si="10">$B$3</f>
+        <v>4.4756059863607636</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E11" si="11">(B9^2/2/(EXP(-B9*D9)-1+B9*D9)+(3*B9)^2/2/(EXP(3*B9*D9)-1-3*B9*D9))^-1</f>
+        <v>6.9736557894580598</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>351</v>
+      </c>
+      <c r="H9">
+        <v>352</v>
+      </c>
+      <c r="I9">
+        <v>360</v>
+      </c>
+      <c r="J9">
+        <v>353</v>
+      </c>
+      <c r="K9">
+        <v>362</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>355.6</v>
+      </c>
+      <c r="O9">
+        <v>52</v>
+      </c>
+      <c r="P9">
+        <v>355</v>
+      </c>
+      <c r="Q9">
+        <v>352</v>
+      </c>
+      <c r="R9">
+        <v>362</v>
+      </c>
+      <c r="S9">
+        <v>354</v>
+      </c>
+      <c r="T9">
+        <v>362</v>
+      </c>
+      <c r="U9">
+        <f>AVERAGE(P9:T9)</f>
+        <v>357</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>2.8940638193961377</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="5"/>
+        <v>8.376255277584562</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>11.105936180603862</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10">
+        <v>1.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="10"/>
+        <v>4.4756059863607636</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="11"/>
+        <v>5.0796648620457647</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>352</v>
+      </c>
+      <c r="H10">
+        <v>350</v>
+      </c>
+      <c r="I10">
+        <v>357</v>
+      </c>
+      <c r="J10">
+        <v>350</v>
+      </c>
+      <c r="K10">
+        <v>357</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>353.2</v>
+      </c>
+      <c r="O10">
+        <v>53</v>
+      </c>
+      <c r="P10">
+        <v>349</v>
+      </c>
+      <c r="Q10">
+        <v>347</v>
+      </c>
+      <c r="R10">
+        <v>357</v>
+      </c>
+      <c r="S10">
+        <v>348</v>
+      </c>
+      <c r="T10">
+        <v>358</v>
+      </c>
+      <c r="U10">
+        <f>AVERAGE(P10:T10)</f>
+        <v>351.8</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>-2.305936180603851</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="5"/>
+        <v>6.070319096980711</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>5.9059361806038737</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="10"/>
+        <v>4.4756059863607636</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="11"/>
+        <v>3.9756707757504364</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>353</v>
+      </c>
+      <c r="H11">
+        <v>353</v>
+      </c>
+      <c r="I11">
+        <v>359</v>
+      </c>
+      <c r="J11">
+        <v>352</v>
+      </c>
+      <c r="K11">
+        <v>358</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="O11">
+        <v>54</v>
+      </c>
+      <c r="P11">
+        <v>350</v>
+      </c>
+      <c r="Q11">
+        <v>349</v>
+      </c>
+      <c r="R11">
+        <v>359</v>
+      </c>
+      <c r="S11">
+        <v>350</v>
+      </c>
+      <c r="T11">
+        <v>359</v>
+      </c>
+      <c r="U11">
+        <f>AVERAGE(P11:T11)</f>
+        <v>353.4</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>-0.70593618060388508</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="5"/>
+        <v>5.364382916376826</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>7.5059361806038396</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>353</v>
+      </c>
+      <c r="H12">
+        <v>353</v>
+      </c>
+      <c r="I12">
+        <v>355</v>
+      </c>
+      <c r="J12">
+        <v>351</v>
+      </c>
+      <c r="K12">
+        <v>360</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>354.4</v>
+      </c>
+      <c r="O12">
+        <v>55</v>
+      </c>
+      <c r="P12">
+        <v>349</v>
+      </c>
+      <c r="Q12">
+        <v>348</v>
+      </c>
+      <c r="R12">
+        <v>357</v>
+      </c>
+      <c r="S12">
+        <v>349</v>
+      </c>
+      <c r="T12">
+        <v>358</v>
+      </c>
+      <c r="U12">
+        <f>AVERAGE(P12:T12)</f>
+        <v>352.2</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>-1.9059361806038737</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="5"/>
+        <v>3.4584467357729523</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="2"/>
+        <v>6.305936180603851</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>353</v>
+      </c>
+      <c r="H13">
+        <v>353</v>
+      </c>
+      <c r="I13">
+        <v>354</v>
+      </c>
+      <c r="J13">
+        <v>351</v>
+      </c>
+      <c r="K13">
+        <v>359</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>354</v>
+      </c>
+      <c r="O13">
+        <v>56</v>
+      </c>
+      <c r="P13">
+        <v>348</v>
+      </c>
+      <c r="Q13">
+        <v>347</v>
+      </c>
+      <c r="R13">
+        <v>348</v>
+      </c>
+      <c r="S13">
+        <v>349</v>
+      </c>
+      <c r="T13">
+        <v>351</v>
+      </c>
+      <c r="U13">
+        <f>AVERAGE(P13:T13)</f>
+        <v>348.6</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>-5.5059361806038396</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="2"/>
+        <v>2.7059361806038851</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>349</v>
+      </c>
+      <c r="H14">
+        <v>350</v>
+      </c>
+      <c r="I14">
+        <v>359</v>
+      </c>
+      <c r="J14">
+        <v>352</v>
+      </c>
+      <c r="K14">
+        <v>356</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>353.2</v>
+      </c>
+      <c r="O14">
+        <v>57</v>
+      </c>
+      <c r="P14">
+        <v>348</v>
+      </c>
+      <c r="Q14">
+        <v>347</v>
+      </c>
+      <c r="R14">
+        <v>349</v>
+      </c>
+      <c r="S14">
+        <v>350</v>
+      </c>
+      <c r="T14">
+        <v>351</v>
+      </c>
+      <c r="U14">
+        <f>AVERAGE(P14:T14)</f>
+        <v>349</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>-5.1059361806038623</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="2"/>
+        <v>3.1059361806038623</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>350</v>
+      </c>
+      <c r="H15">
+        <v>351</v>
+      </c>
+      <c r="I15">
+        <v>361</v>
+      </c>
+      <c r="J15">
+        <v>350</v>
+      </c>
+      <c r="K15">
+        <v>359</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>354.2</v>
+      </c>
+      <c r="O15">
+        <v>58</v>
+      </c>
+      <c r="P15">
+        <v>345</v>
+      </c>
+      <c r="Q15">
+        <v>346</v>
+      </c>
+      <c r="R15">
+        <v>355</v>
+      </c>
+      <c r="S15">
+        <v>346</v>
+      </c>
+      <c r="T15">
+        <v>355</v>
+      </c>
+      <c r="U15">
+        <f>AVERAGE(P15:T15)</f>
+        <v>349.4</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>-4.7059361806038851</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>3.5059361806038396</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>349</v>
+      </c>
+      <c r="H16">
+        <v>351</v>
+      </c>
+      <c r="I16">
+        <v>360</v>
+      </c>
+      <c r="J16">
+        <v>351</v>
+      </c>
+      <c r="K16">
+        <v>358</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>353.8</v>
+      </c>
+      <c r="O16">
+        <v>59</v>
+      </c>
+      <c r="P16">
+        <v>343</v>
+      </c>
+      <c r="Q16">
+        <v>346</v>
+      </c>
+      <c r="R16">
+        <v>356</v>
+      </c>
+      <c r="S16">
+        <v>346</v>
+      </c>
+      <c r="T16">
+        <v>356</v>
+      </c>
+      <c r="U16">
+        <f>AVERAGE(P16:T16)</f>
+        <v>349.4</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>-4.7059361806038851</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>3.5059361806038396</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="17" spans="6:29">
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>351</v>
+      </c>
+      <c r="H17">
+        <v>351</v>
+      </c>
+      <c r="I17">
+        <v>360</v>
+      </c>
+      <c r="J17">
+        <v>351</v>
+      </c>
+      <c r="K17">
+        <v>360</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>354.6</v>
+      </c>
+      <c r="O17">
+        <v>60</v>
+      </c>
+      <c r="P17">
+        <v>348</v>
+      </c>
+      <c r="Q17">
+        <v>350</v>
+      </c>
+      <c r="R17">
+        <v>359</v>
+      </c>
+      <c r="S17">
+        <v>349</v>
+      </c>
+      <c r="T17">
+        <v>357</v>
+      </c>
+      <c r="U17">
+        <f>AVERAGE(P17:T17)</f>
+        <v>352.6</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>-1.5059361806038396</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="2"/>
+        <v>6.7059361806038851</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="18" spans="6:29">
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>349</v>
+      </c>
+      <c r="H18">
+        <v>350</v>
+      </c>
+      <c r="I18">
+        <v>359</v>
+      </c>
+      <c r="J18">
+        <v>351</v>
+      </c>
+      <c r="K18">
+        <v>357</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>353.2</v>
+      </c>
+      <c r="O18">
+        <v>61</v>
+      </c>
+      <c r="P18">
+        <v>350</v>
+      </c>
+      <c r="Q18">
+        <v>351</v>
+      </c>
+      <c r="R18">
+        <v>360</v>
+      </c>
+      <c r="S18">
+        <v>350</v>
+      </c>
+      <c r="T18">
+        <v>355</v>
+      </c>
+      <c r="U18">
+        <f>AVERAGE(P18:T18)</f>
+        <v>353.2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>-0.90593618060387371</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="2"/>
+        <v>7.305936180603851</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="19" spans="6:29">
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>369</v>
+      </c>
+      <c r="H19">
+        <v>366</v>
+      </c>
+      <c r="I19">
+        <v>374</v>
+      </c>
+      <c r="J19">
+        <v>369</v>
+      </c>
+      <c r="K19">
+        <v>374</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>370.4</v>
+      </c>
+      <c r="O19">
+        <v>62</v>
+      </c>
+      <c r="P19">
+        <v>350</v>
+      </c>
+      <c r="Q19">
+        <v>351</v>
+      </c>
+      <c r="R19">
+        <v>359</v>
+      </c>
+      <c r="S19">
+        <v>351</v>
+      </c>
+      <c r="T19">
+        <v>354</v>
+      </c>
+      <c r="U19">
+        <f>AVERAGE(P19:T19)</f>
+        <v>353</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>-1.1059361806038623</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="2"/>
+        <v>7.1059361806038623</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="20" spans="6:29">
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>356</v>
+      </c>
+      <c r="H20">
+        <v>351</v>
+      </c>
+      <c r="I20">
+        <v>361</v>
+      </c>
+      <c r="J20">
+        <v>357</v>
+      </c>
+      <c r="K20">
+        <v>361</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>357.2</v>
+      </c>
+      <c r="O20">
+        <v>63</v>
+      </c>
+      <c r="P20">
+        <v>348</v>
+      </c>
+      <c r="Q20">
+        <v>347</v>
+      </c>
+      <c r="R20">
+        <v>356</v>
+      </c>
+      <c r="S20">
+        <v>344</v>
+      </c>
+      <c r="T20">
+        <v>355</v>
+      </c>
+      <c r="U20">
+        <f>AVERAGE(P20:T20)</f>
+        <v>350</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>-4.1059361806038623</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="2"/>
+        <v>4.1059361806038623</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="21" spans="6:29">
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>355</v>
+      </c>
+      <c r="H21">
+        <v>354</v>
+      </c>
+      <c r="I21">
+        <v>366</v>
+      </c>
+      <c r="J21">
+        <v>356</v>
+      </c>
+      <c r="K21">
+        <v>366</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>359.4</v>
+      </c>
+      <c r="O21">
+        <v>64</v>
+      </c>
+      <c r="P21">
+        <v>347</v>
+      </c>
+      <c r="Q21">
+        <v>349</v>
+      </c>
+      <c r="R21">
+        <v>358</v>
+      </c>
+      <c r="S21">
+        <v>348</v>
+      </c>
+      <c r="T21">
+        <v>357</v>
+      </c>
+      <c r="U21">
+        <f>AVERAGE(P21:T21)</f>
+        <v>351.8</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>-2.305936180603851</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="2"/>
+        <v>5.9059361806038737</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="22" spans="6:29">
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>353</v>
+      </c>
+      <c r="H22">
+        <v>352</v>
+      </c>
+      <c r="I22">
+        <v>363</v>
+      </c>
+      <c r="J22">
+        <v>353</v>
+      </c>
+      <c r="K22">
+        <v>362</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>356.6</v>
+      </c>
+      <c r="O22">
+        <v>65</v>
+      </c>
+      <c r="P22">
+        <v>349</v>
+      </c>
+      <c r="Q22">
+        <v>348</v>
+      </c>
+      <c r="R22">
+        <v>359</v>
+      </c>
+      <c r="S22">
+        <v>349</v>
+      </c>
+      <c r="T22">
+        <v>357</v>
+      </c>
+      <c r="U22">
+        <f>AVERAGE(P22:T22)</f>
+        <v>352.4</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>-1.7059361806038851</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="2"/>
+        <v>6.5059361806038396</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="23" spans="6:29">
+      <c r="F23">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>354</v>
+      </c>
+      <c r="H23">
+        <v>353</v>
+      </c>
+      <c r="I23">
+        <v>364</v>
+      </c>
+      <c r="J23">
+        <v>354</v>
+      </c>
+      <c r="K23">
+        <v>364</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>357.8</v>
+      </c>
+      <c r="O23">
+        <v>66</v>
+      </c>
+      <c r="P23">
+        <v>347</v>
+      </c>
+      <c r="Q23">
+        <v>347</v>
+      </c>
+      <c r="R23">
+        <v>343</v>
+      </c>
+      <c r="S23">
+        <v>341</v>
+      </c>
+      <c r="T23">
+        <v>343</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ref="U23:U42" si="12">AVERAGE(P23:T23)</f>
+        <v>344.2</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>-9.9059361806038737</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="2"/>
+        <v>-1.694063819396149</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="7"/>
+        <v>-1.694063819396149</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="24" spans="6:29">
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>354</v>
+      </c>
+      <c r="H24">
+        <v>354</v>
+      </c>
+      <c r="I24">
+        <v>360</v>
+      </c>
+      <c r="J24">
+        <v>356</v>
+      </c>
+      <c r="K24">
+        <v>360</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>356.8</v>
+      </c>
+      <c r="O24">
+        <v>67</v>
+      </c>
+      <c r="P24">
+        <v>348</v>
+      </c>
+      <c r="Q24">
+        <v>347</v>
+      </c>
+      <c r="R24">
+        <v>356</v>
+      </c>
+      <c r="S24">
+        <v>346</v>
+      </c>
+      <c r="T24">
+        <v>355</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="12"/>
+        <v>350.4</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>-3.7059361806038851</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="2"/>
+        <v>4.5059361806038396</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="25" spans="6:29">
+      <c r="F25">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <v>358</v>
+      </c>
+      <c r="H25">
+        <v>356</v>
+      </c>
+      <c r="I25">
+        <v>366</v>
+      </c>
+      <c r="J25">
+        <v>357</v>
+      </c>
+      <c r="K25">
+        <v>366</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>360.6</v>
+      </c>
+      <c r="O25">
+        <v>68</v>
+      </c>
+      <c r="P25">
+        <v>345</v>
+      </c>
+      <c r="Q25">
+        <v>346</v>
+      </c>
+      <c r="R25">
+        <v>355</v>
+      </c>
+      <c r="S25">
+        <v>347</v>
+      </c>
+      <c r="T25">
+        <v>353</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="12"/>
+        <v>349.2</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>-4.9059361806038737</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="2"/>
+        <v>3.305936180603851</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="26" spans="6:29">
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>358</v>
+      </c>
+      <c r="H26">
+        <v>355</v>
+      </c>
+      <c r="I26">
+        <v>365</v>
+      </c>
+      <c r="J26">
+        <v>357</v>
+      </c>
+      <c r="K26">
+        <v>366</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>360.2</v>
+      </c>
+      <c r="O26">
+        <v>69</v>
+      </c>
+      <c r="P26">
+        <v>345</v>
+      </c>
+      <c r="Q26">
+        <v>345</v>
+      </c>
+      <c r="R26">
+        <v>353</v>
+      </c>
+      <c r="S26">
+        <v>345</v>
+      </c>
+      <c r="T26">
+        <v>353</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="12"/>
+        <v>348.2</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>-5.9059361806038737</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="2"/>
+        <v>2.305936180603851</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="27" spans="6:29">
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>356</v>
+      </c>
+      <c r="H27">
+        <v>353</v>
+      </c>
+      <c r="I27">
+        <v>365</v>
+      </c>
+      <c r="J27">
+        <v>356</v>
+      </c>
+      <c r="K27">
+        <v>364</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>358.8</v>
+      </c>
+      <c r="O27">
+        <v>70</v>
+      </c>
+      <c r="P27">
+        <v>347</v>
+      </c>
+      <c r="Q27">
+        <v>345</v>
+      </c>
+      <c r="R27">
+        <v>353</v>
+      </c>
+      <c r="S27">
+        <v>345</v>
+      </c>
+      <c r="T27">
+        <v>353</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="12"/>
+        <v>348.6</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>-5.5059361806038396</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="2"/>
+        <v>2.7059361806038851</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="28" spans="6:29">
+      <c r="F28">
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <v>333</v>
+      </c>
+      <c r="H28">
+        <v>346</v>
+      </c>
+      <c r="I28">
+        <v>338</v>
+      </c>
+      <c r="J28">
+        <v>335</v>
+      </c>
+      <c r="K28">
+        <v>338</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>338</v>
+      </c>
+      <c r="O28">
+        <v>71</v>
+      </c>
+      <c r="P28">
+        <v>349</v>
+      </c>
+      <c r="Q28">
+        <v>346</v>
+      </c>
+      <c r="R28">
+        <v>356</v>
+      </c>
+      <c r="S28">
+        <v>347</v>
+      </c>
+      <c r="T28">
+        <v>356</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="12"/>
+        <v>350.8</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>-3.305936180603851</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="2"/>
+        <v>4.9059361806038737</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="29" spans="6:29">
+      <c r="F29">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <v>351</v>
+      </c>
+      <c r="H29">
+        <v>349</v>
+      </c>
+      <c r="I29">
+        <v>361</v>
+      </c>
+      <c r="J29">
+        <v>351</v>
+      </c>
+      <c r="K29">
+        <v>361</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>354.6</v>
+      </c>
+      <c r="O29">
+        <v>72</v>
+      </c>
+      <c r="P29">
+        <v>342</v>
+      </c>
+      <c r="Q29">
+        <v>342</v>
+      </c>
+      <c r="R29">
+        <v>347</v>
+      </c>
+      <c r="S29">
+        <v>340</v>
+      </c>
+      <c r="T29">
+        <v>348</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="12"/>
+        <v>343.8</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>-10.305936180603851</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="2"/>
+        <v>-2.0940638193961263</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="7"/>
+        <v>-2.0940638193961263</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="30" spans="6:29">
+      <c r="F30">
+        <v>28</v>
+      </c>
+      <c r="G30">
+        <v>350</v>
+      </c>
+      <c r="H30">
+        <v>349</v>
+      </c>
+      <c r="I30">
+        <v>348</v>
+      </c>
+      <c r="J30">
+        <v>349</v>
+      </c>
+      <c r="K30">
+        <v>350</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>349.2</v>
+      </c>
+      <c r="O30">
+        <v>73</v>
+      </c>
+      <c r="P30">
+        <v>347</v>
+      </c>
+      <c r="Q30">
+        <v>345</v>
+      </c>
+      <c r="R30">
+        <v>355</v>
+      </c>
+      <c r="S30">
+        <v>345</v>
+      </c>
+      <c r="T30">
+        <v>355</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="12"/>
+        <v>349.4</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>-4.7059361806038851</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="2"/>
+        <v>3.5059361806038396</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="31" spans="6:29">
+      <c r="F31">
+        <v>29</v>
+      </c>
+      <c r="G31">
+        <v>352</v>
+      </c>
+      <c r="H31">
+        <v>352</v>
+      </c>
+      <c r="I31">
+        <v>364</v>
+      </c>
+      <c r="J31">
+        <v>354</v>
+      </c>
+      <c r="K31">
+        <v>361</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>356.6</v>
+      </c>
+      <c r="O31">
+        <v>74</v>
+      </c>
+      <c r="P31">
+        <v>346</v>
+      </c>
+      <c r="Q31">
+        <v>344</v>
+      </c>
+      <c r="R31">
+        <v>354</v>
+      </c>
+      <c r="S31">
+        <v>344</v>
+      </c>
+      <c r="T31">
+        <v>353</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="12"/>
+        <v>348.2</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>-5.9059361806038737</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="2"/>
+        <v>2.305936180603851</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="32" spans="6:29">
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>351</v>
+      </c>
+      <c r="H32">
+        <v>357</v>
+      </c>
+      <c r="I32">
+        <v>363</v>
+      </c>
+      <c r="J32">
+        <v>353</v>
+      </c>
+      <c r="K32">
+        <v>361</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+      <c r="O32">
+        <v>75</v>
+      </c>
+      <c r="P32">
+        <v>344</v>
+      </c>
+      <c r="Q32">
+        <v>342</v>
+      </c>
+      <c r="R32">
+        <v>353</v>
+      </c>
+      <c r="S32">
+        <v>343</v>
+      </c>
+      <c r="T32">
+        <v>352</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="12"/>
+        <v>346.8</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>-7.305936180603851</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="2"/>
+        <v>0.90593618060387371</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="33" spans="6:29">
+      <c r="F33">
+        <v>31</v>
+      </c>
+      <c r="G33">
+        <v>352</v>
+      </c>
+      <c r="H33">
+        <v>352</v>
+      </c>
+      <c r="I33">
+        <v>364</v>
+      </c>
+      <c r="J33">
+        <v>354</v>
+      </c>
+      <c r="K33">
+        <v>362</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>356.8</v>
+      </c>
+      <c r="O33">
+        <v>76</v>
+      </c>
+      <c r="P33">
+        <v>347</v>
+      </c>
+      <c r="Q33">
+        <v>347</v>
+      </c>
+      <c r="R33">
+        <v>347</v>
+      </c>
+      <c r="S33">
+        <v>357</v>
+      </c>
+      <c r="T33">
+        <v>357</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="12"/>
+        <v>351</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>-3.1059361806038623</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="2"/>
+        <v>5.1059361806038623</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="34" spans="6:29">
+      <c r="F34">
+        <v>32</v>
+      </c>
+      <c r="G34">
+        <v>349</v>
+      </c>
+      <c r="H34">
+        <v>351</v>
+      </c>
+      <c r="I34">
+        <v>363</v>
+      </c>
+      <c r="J34">
+        <v>352</v>
+      </c>
+      <c r="K34">
+        <v>362</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>355.4</v>
+      </c>
+      <c r="O34">
+        <v>77</v>
+      </c>
+      <c r="P34">
+        <v>345</v>
+      </c>
+      <c r="Q34">
+        <v>343</v>
+      </c>
+      <c r="R34">
+        <v>352</v>
+      </c>
+      <c r="S34">
+        <v>343</v>
+      </c>
+      <c r="T34">
+        <v>351</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="12"/>
+        <v>346.8</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>-7.305936180603851</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="2"/>
+        <v>0.90593618060387371</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="35" spans="6:29">
+      <c r="F35">
+        <v>33</v>
+      </c>
+      <c r="G35">
+        <v>349</v>
+      </c>
+      <c r="H35">
+        <v>351</v>
+      </c>
+      <c r="I35">
+        <v>362</v>
+      </c>
+      <c r="J35">
+        <v>351</v>
+      </c>
+      <c r="K35">
+        <v>361</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>354.8</v>
+      </c>
+      <c r="O35">
+        <v>78</v>
+      </c>
+      <c r="P35">
+        <v>347</v>
+      </c>
+      <c r="Q35">
+        <v>345</v>
+      </c>
+      <c r="R35">
+        <v>356</v>
+      </c>
+      <c r="S35">
+        <v>345</v>
+      </c>
+      <c r="T35">
+        <v>355</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="12"/>
+        <v>349.6</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>-4.5059361806038396</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="2"/>
+        <v>3.7059361806038851</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="36" spans="6:29">
+      <c r="F36">
+        <v>34</v>
+      </c>
+      <c r="G36">
+        <v>347</v>
+      </c>
+      <c r="H36">
+        <v>348</v>
+      </c>
+      <c r="I36">
+        <v>361</v>
+      </c>
+      <c r="J36">
+        <v>349</v>
+      </c>
+      <c r="K36">
+        <v>358</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>352.6</v>
+      </c>
+      <c r="O36">
+        <v>79</v>
+      </c>
+      <c r="P36">
+        <v>347</v>
+      </c>
+      <c r="Q36">
+        <v>346</v>
+      </c>
+      <c r="R36">
+        <v>357</v>
+      </c>
+      <c r="S36">
+        <v>347</v>
+      </c>
+      <c r="T36">
+        <v>356</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="12"/>
+        <v>350.6</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>-3.5059361806038396</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="2"/>
+        <v>4.7059361806038851</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="37" spans="6:29">
+      <c r="F37">
+        <v>35</v>
+      </c>
+      <c r="G37">
+        <v>347</v>
+      </c>
+      <c r="H37">
+        <v>348</v>
+      </c>
+      <c r="I37">
+        <v>360</v>
+      </c>
+      <c r="J37">
+        <v>349</v>
+      </c>
+      <c r="K37">
+        <v>351</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>351</v>
+      </c>
+      <c r="O37">
+        <v>80</v>
+      </c>
+      <c r="P37">
+        <v>349</v>
+      </c>
+      <c r="Q37">
+        <v>346</v>
+      </c>
+      <c r="R37">
+        <v>357</v>
+      </c>
+      <c r="S37">
+        <v>346</v>
+      </c>
+      <c r="T37">
+        <v>357</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="12"/>
+        <v>351</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>-3.1059361806038623</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="2"/>
+        <v>5.1059361806038623</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="38" spans="6:29">
+      <c r="F38">
+        <v>36</v>
+      </c>
+      <c r="G38">
+        <v>352</v>
+      </c>
+      <c r="H38">
+        <v>351</v>
+      </c>
+      <c r="I38">
+        <v>354</v>
+      </c>
+      <c r="J38">
+        <v>349</v>
+      </c>
+      <c r="K38">
+        <v>350</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>351.2</v>
+      </c>
+      <c r="O38">
+        <v>81</v>
+      </c>
+      <c r="P38">
+        <v>343</v>
+      </c>
+      <c r="Q38">
+        <v>347</v>
+      </c>
+      <c r="R38">
+        <v>355</v>
+      </c>
+      <c r="S38">
+        <v>347</v>
+      </c>
+      <c r="T38">
+        <v>355</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="12"/>
+        <v>349.4</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>-4.7059361806038851</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="2"/>
+        <v>3.5059361806038396</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="39" spans="6:29">
+      <c r="F39">
+        <v>37</v>
+      </c>
+      <c r="G39">
+        <v>347</v>
+      </c>
+      <c r="H39">
+        <v>343</v>
+      </c>
+      <c r="I39">
+        <v>353</v>
+      </c>
+      <c r="J39">
+        <v>344</v>
+      </c>
+      <c r="K39">
+        <v>353</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+      <c r="O39">
+        <v>82</v>
+      </c>
+      <c r="P39">
+        <v>347</v>
+      </c>
+      <c r="Q39">
+        <v>348</v>
+      </c>
+      <c r="R39">
+        <v>358</v>
+      </c>
+      <c r="S39">
+        <v>347</v>
+      </c>
+      <c r="T39">
+        <v>357</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="12"/>
+        <v>351.4</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>-2.7059361806038851</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="2"/>
+        <v>5.5059361806038396</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="40" spans="6:29">
+      <c r="F40">
+        <v>38</v>
+      </c>
+      <c r="G40">
+        <v>354</v>
+      </c>
+      <c r="H40">
+        <v>354</v>
+      </c>
+      <c r="I40">
+        <v>362</v>
+      </c>
+      <c r="J40">
+        <v>355</v>
+      </c>
+      <c r="K40">
+        <v>364</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>357.8</v>
+      </c>
+      <c r="O40">
+        <v>83</v>
+      </c>
+      <c r="P40">
+        <v>344</v>
+      </c>
+      <c r="Q40">
+        <v>344</v>
+      </c>
+      <c r="R40">
+        <v>346</v>
+      </c>
+      <c r="S40">
+        <v>344</v>
+      </c>
+      <c r="T40">
+        <v>348</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="12"/>
+        <v>345.2</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>-8.9059361806038737</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="2"/>
+        <v>-0.69406381939614903</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="7"/>
+        <v>-0.69406381939614903</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="41" spans="6:29">
+      <c r="F41">
+        <v>39</v>
+      </c>
+      <c r="G41">
+        <v>352</v>
+      </c>
+      <c r="H41">
+        <v>350</v>
+      </c>
+      <c r="I41">
+        <v>360</v>
+      </c>
+      <c r="J41">
+        <v>350</v>
+      </c>
+      <c r="K41">
+        <v>361</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>354.6</v>
+      </c>
+      <c r="O41">
+        <v>84</v>
+      </c>
+      <c r="P41">
+        <v>351</v>
+      </c>
+      <c r="Q41">
+        <v>350</v>
+      </c>
+      <c r="R41">
+        <v>359</v>
+      </c>
+      <c r="S41">
+        <v>349</v>
+      </c>
+      <c r="T41">
+        <v>358</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="12"/>
+        <v>353.4</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>-0.70593618060388508</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="2"/>
+        <v>7.5059361806038396</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="42" spans="6:29">
+      <c r="F42">
+        <v>40</v>
+      </c>
+      <c r="G42">
+        <v>350</v>
+      </c>
+      <c r="H42">
+        <v>350</v>
+      </c>
+      <c r="I42">
+        <v>352</v>
+      </c>
+      <c r="J42">
+        <v>358</v>
+      </c>
+      <c r="K42">
+        <v>352</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>352.4</v>
+      </c>
+      <c r="O42">
+        <v>85</v>
+      </c>
+      <c r="P42">
+        <v>345</v>
+      </c>
+      <c r="Q42">
+        <v>345</v>
+      </c>
+      <c r="R42">
+        <v>353</v>
+      </c>
+      <c r="S42">
+        <v>344</v>
+      </c>
+      <c r="T42">
+        <v>353</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="12"/>
+        <v>348</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>-6.1059361806038623</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="2"/>
+        <v>2.1059361806038623</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="3"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="4"/>
+        <v>-16.986288703677289</v>
+      </c>
+    </row>
+    <row r="43" spans="6:29">
+      <c r="F43">
+        <v>41</v>
+      </c>
+      <c r="G43">
+        <v>351</v>
+      </c>
+      <c r="H43">
+        <v>350</v>
+      </c>
+      <c r="I43">
+        <v>360</v>
+      </c>
+      <c r="J43">
+        <v>352</v>
+      </c>
+      <c r="K43">
+        <v>360</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>354.6</v>
+      </c>
+    </row>
+    <row r="44" spans="6:29">
+      <c r="F44">
+        <v>42</v>
+      </c>
+      <c r="G44">
+        <v>331</v>
+      </c>
+      <c r="H44">
+        <v>344</v>
+      </c>
+      <c r="I44">
+        <v>336</v>
+      </c>
+      <c r="J44">
+        <v>334</v>
+      </c>
+      <c r="K44">
+        <v>336</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>336.2</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="6:29">
+      <c r="F45">
+        <v>43</v>
+      </c>
+      <c r="G45">
+        <v>348</v>
+      </c>
+      <c r="H45">
+        <v>349</v>
+      </c>
+      <c r="I45">
+        <v>359</v>
+      </c>
+      <c r="J45">
+        <v>349</v>
+      </c>
+      <c r="K45">
+        <v>358</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>352.6</v>
+      </c>
+      <c r="Y45">
+        <f>N5-N6+Z5/AA5</f>
+        <v>317.60000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="6:29">
+      <c r="F46">
+        <v>44</v>
+      </c>
+      <c r="G46">
+        <v>353</v>
+      </c>
+      <c r="H46">
+        <v>351</v>
+      </c>
+      <c r="I46">
+        <v>362</v>
+      </c>
+      <c r="J46">
+        <v>352</v>
+      </c>
+      <c r="K46">
+        <v>362</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47" spans="6:29">
+      <c r="F47">
+        <v>45</v>
+      </c>
+      <c r="G47">
+        <v>351</v>
+      </c>
+      <c r="H47">
+        <v>349</v>
+      </c>
+      <c r="I47">
+        <v>358</v>
+      </c>
+      <c r="J47">
+        <v>351</v>
+      </c>
+      <c r="K47">
+        <v>358</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>353.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="W3:W42">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>$N$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:Z42">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>-$N$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A2885C-1C5A-4D26-A9AC-666B4D4F8AB7}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3">
+        <f>2*LN(1.0234*(2/PI())^0.5*B1^2*B2)</f>
+        <v>13.90390884331558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4">
+        <f>1.0234*B1^2/(B3-LN(B3))</f>
+        <v>0.23243121929008978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5">
+        <f>(B3-LN(B3))^0.5-B4</f>
+        <v>3.1249098165539344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -53107,12 +59132,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O2:O27">
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="reject">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="reject">
       <formula>NOT(ISERROR(SEARCH("reject",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S26">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="reject">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="reject">
       <formula>NOT(ISERROR(SEARCH("reject",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60465,10 +66490,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:A86">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>$C$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/統計管制與最佳化方法概論/homework/my_homework/midterm/Midterm Exam  R12522615.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/midterm/Midterm Exam  R12522615.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\midterm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D661A43-016A-4792-BDDE-8C5673F53274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B316411-29C8-4A1D-A058-BE2B77AC5EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="12" xr2:uid="{03A7210E-A3B0-4816-8CE8-4C2A42CCA94A}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="183">
   <si>
     <t>probability of fifth prize</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1142,6 +1142,54 @@
     <t>L*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="161"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>φ(w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Φ(w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1153,7 +1201,7 @@
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="###,###,##0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1234,6 +1282,14 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="161"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1379,7 +1435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1485,6 +1541,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1500,7 +1559,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5248,121 +5307,121 @@
                   <c:v>9.305936180603851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.011872361207736</c:v>
+                  <c:v>9.7059361806038851</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.2821914581883789</c:v>
+                  <c:v>-28.294063819396115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8237447224154835</c:v>
+                  <c:v>13.105936180603862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.929680903019346</c:v>
+                  <c:v>8.1059361806038623</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.83561708362322</c:v>
+                  <c:v>8.9059361806038737</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.941553264227082</c:v>
+                  <c:v>11.105936180603862</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.847489444830956</c:v>
+                  <c:v>5.9059361806038737</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.353425625434795</c:v>
+                  <c:v>7.5059361806038396</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.659361806038646</c:v>
+                  <c:v>6.305936180603851</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.365297986642531</c:v>
+                  <c:v>2.7059361806038851</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.471234167246394</c:v>
+                  <c:v>5.8118723612077474</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60.977170347850233</c:v>
+                  <c:v>3.5059361806038396</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64.483106528454073</c:v>
+                  <c:v>7.0118723612076792</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71.189042709057958</c:v>
+                  <c:v>6.7059361806038851</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78.494978889661809</c:v>
+                  <c:v>7.305936180603851</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85.600915070265671</c:v>
+                  <c:v>7.1059361806038623</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>89.706851250869533</c:v>
+                  <c:v>4.1059361806038623</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95.612787431473407</c:v>
+                  <c:v>10.011872361207736</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>102.11872361207725</c:v>
+                  <c:v>6.5059361806038396</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100.4246597926811</c:v>
+                  <c:v>-1.694063819396149</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>104.93059597328494</c:v>
+                  <c:v>2.8118723612076906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>108.23653215388879</c:v>
+                  <c:v>6.1178085418115415</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>110.54246833449264</c:v>
+                  <c:v>2.305936180603851</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>113.24840451509652</c:v>
+                  <c:v>5.011872361207736</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>118.1543406957004</c:v>
+                  <c:v>9.9178085418116098</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>116.06027687630427</c:v>
+                  <c:v>-2.0940638193961263</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>119.56621305690811</c:v>
+                  <c:v>1.4118723612077133</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>121.87214923751196</c:v>
+                  <c:v>3.7178085418115643</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>122.77808541811584</c:v>
+                  <c:v>4.623744722415438</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>127.8840215987197</c:v>
+                  <c:v>9.7296809030193003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>128.78995777932357</c:v>
+                  <c:v>0.90593618060387371</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>132.49589395992746</c:v>
+                  <c:v>4.6118723612077588</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>137.20183014053134</c:v>
+                  <c:v>9.3178085418116439</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>142.3077663211352</c:v>
+                  <c:v>5.1059361806038623</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>145.81370250173904</c:v>
+                  <c:v>8.6118723612077019</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>151.31963868234288</c:v>
+                  <c:v>5.5059361806038396</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>150.62557486294673</c:v>
+                  <c:v>-0.69406381939614903</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>158.13151104355057</c:v>
+                  <c:v>6.8118723612076906</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>160.23744722415444</c:v>
+                  <c:v>2.1059361806038623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7024,6 +7083,8 @@
         <c:axId val="501181488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="385"/>
+          <c:min val="315"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -8658,6 +8719,8 @@
         <c:axId val="685944992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="380"/>
+          <c:min val="310"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -10287,6 +10350,7 @@
         <c:axId val="1221672160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="375"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -10398,6 +10462,1328 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1221672160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>EWMA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-7'!$AA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3-7'!$S$3:$S$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3-7'!$AA$3:$AA$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>353.72781332635526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>354.69935462894261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>355.18725391628527</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>355.45431251558244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>355.6057003924584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>355.69300808961503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>355.74382522154445</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355.77355535294885</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>355.79099976036076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>355.80125278313545</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>355.80728499854229</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>355.81083601814407</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>355.81292712785267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>355.81415877780336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>355.81488429682059</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>355.81531170256102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>355.81556349900558</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>355.81571184275697</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>355.81579923946208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>355.81585072965026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>355.81588106549054</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>355.81589893813572</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>355.81590946799042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>355.81591567176997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>355.81591932679703</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>355.81592148019837</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>355.81592274889988</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>355.81592349637026</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>355.81592393675123</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>355.81592419620688</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>355.81592434906827</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>355.81592443912831</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>355.81592449218829</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>355.81592452344921</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>355.81592454186693</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>355.81592455271795</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>355.81592455911095</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>355.81592456287746</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>355.81592456509657</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>355.81592456640396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3934-4EB7-8F20-9D432809DCA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-7'!$AB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3-7'!$S$3:$S$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3-7'!$AB$3:$AB$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>346.27218667364474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>345.30064537105739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>344.81274608371473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>344.54568748441756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>344.3942996075416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>344.30699191038497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>344.25617477845555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>344.22644464705115</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>344.20900023963924</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>344.19874721686455</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>344.19271500145771</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>344.18916398185593</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>344.18707287214733</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>344.18584122219664</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>344.18511570317941</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>344.18468829743898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>344.18443650099442</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>344.18428815724303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>344.18420076053792</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>344.18414927034974</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>344.18411893450946</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>344.18410106186428</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>344.18409053200958</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>344.18408432823003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>344.18408067320297</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>344.18407851980163</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>344.18407725110012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>344.18407650362974</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>344.18407606324877</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>344.18407580379312</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>344.18407565093173</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>344.18407556087169</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>344.18407550781171</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>344.18407547655079</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>344.18407545813307</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>344.18407544728205</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>344.18407544088905</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>344.18407543712254</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>344.18407543490343</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>344.18407543359604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3934-4EB7-8F20-9D432809DCA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-7'!$Z$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Z_i</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3-7'!$S$3:$S$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3-7'!$Z$3:$Z$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>351.20864234030842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352.22933095548939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>344.18039333830495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>347.62493258408227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>349.10669727662054</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350.4299985704032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>351.95707201342196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>351.92056357382592</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>352.26443078622373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>352.24945506002189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>351.40120777067659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350.84309212076943</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350.50767245959105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350.25021479923424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>350.79637823851806</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>351.35505497525151</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>351.73739155301894</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>351.33356751596642</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>351.44198098694687</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>351.66465451425387</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>349.92963576392651</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>350.0389630968275</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>349.8439618812925</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>349.46185381675724</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>349.26153208327855</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>349.61912005700083</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>348.26657488695673</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>348.53001826795537</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>348.45331171954649</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>348.06903046070568</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>348.75027928442597</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>348.29697349239063</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>348.5998375323216</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>349.06473773346238</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>349.5145531017198</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>349.48792738461356</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>349.93235275397905</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>348.83240623326088</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>349.89405762168587</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>349.45381949927173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3934-4EB7-8F20-9D432809DCA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1281857535"/>
+        <c:axId val="1281847967"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1281857535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="85"/>
+          <c:min val="45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>wafer number</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1281847967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1281847967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>EWMA</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1281857535"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -19373,6 +20759,46 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -22816,6 +24242,522 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -27981,16 +29923,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>77931</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>135083</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1186293</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>805294</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>176647</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>337702</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90055</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28095,13 +30037,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -28111,6 +30053,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799B6303-425A-48BE-AD3C-D314874CD63D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE3A80F-4AE2-4D13-A4A7-CE39EEC30613}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28495,42 +30478,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39" t="s">
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="38" t="s">
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
       <c r="AO1" t="str" cm="1">
         <f t="array" ref="AO1:AT4">TRANSPOSE(W2:Z7)</f>
         <v>X_bar_bar</v>
@@ -29579,12 +31562,12 @@
         <f t="shared" si="14"/>
         <v>3.00227995941564</v>
       </c>
-      <c r="W8" s="39" t="s">
+      <c r="W8" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
       <c r="AA8">
         <v>51</v>
       </c>
@@ -34578,8 +36561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4D3C0D-542E-4A6E-86BD-ABD10B135541}">
   <dimension ref="A1:AV47"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView topLeftCell="H16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AO33" sqref="AO33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -34605,39 +36588,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="S1" s="38" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="S1" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">
@@ -35023,8 +37006,8 @@
         <v>9.7059361806038851</v>
       </c>
       <c r="T4">
-        <f>T3+S4</f>
-        <v>19.011872361207736</v>
+        <f>IF(OR(T3&gt;$K$11,T3&lt;$K$10),S4,T3+S4)</f>
+        <v>9.7059361806038851</v>
       </c>
       <c r="U4">
         <f t="shared" ref="U4:U42" si="4">$K$10</f>
@@ -35164,8 +37147,8 @@
         <v>-28.294063819396115</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T42" si="15">T4+S5</f>
-        <v>-9.2821914581883789</v>
+        <f t="shared" ref="T5:T42" si="15">IF(OR(T4&gt;$K$11,T4&lt;$K$10),S5,T4+S5)</f>
+        <v>-28.294063819396115</v>
       </c>
       <c r="U5">
         <f t="shared" si="4"/>
@@ -35331,7 +37314,7 @@
       </c>
       <c r="T6">
         <f t="shared" si="15"/>
-        <v>3.8237447224154835</v>
+        <v>13.105936180603862</v>
       </c>
       <c r="U6">
         <f t="shared" si="4"/>
@@ -35496,7 +37479,7 @@
       </c>
       <c r="T7">
         <f t="shared" si="15"/>
-        <v>11.929680903019346</v>
+        <v>8.1059361806038623</v>
       </c>
       <c r="U7">
         <f t="shared" si="4"/>
@@ -35636,7 +37619,7 @@
       </c>
       <c r="T8">
         <f t="shared" si="15"/>
-        <v>20.83561708362322</v>
+        <v>8.9059361806038737</v>
       </c>
       <c r="U8">
         <f t="shared" si="4"/>
@@ -35801,7 +37784,7 @@
       </c>
       <c r="T9">
         <f t="shared" si="15"/>
-        <v>31.941553264227082</v>
+        <v>11.105936180603862</v>
       </c>
       <c r="U9">
         <f t="shared" si="4"/>
@@ -35966,7 +37949,7 @@
       </c>
       <c r="T10">
         <f t="shared" si="15"/>
-        <v>37.847489444830956</v>
+        <v>5.9059361806038737</v>
       </c>
       <c r="U10">
         <f t="shared" si="4"/>
@@ -36107,7 +38090,7 @@
       </c>
       <c r="T11">
         <f t="shared" si="15"/>
-        <v>45.353425625434795</v>
+        <v>7.5059361806038396</v>
       </c>
       <c r="U11">
         <f t="shared" si="4"/>
@@ -36241,7 +38224,7 @@
       </c>
       <c r="T12">
         <f t="shared" si="15"/>
-        <v>51.659361806038646</v>
+        <v>6.305936180603851</v>
       </c>
       <c r="U12">
         <f t="shared" si="4"/>
@@ -36382,7 +38365,7 @@
       </c>
       <c r="T13">
         <f t="shared" si="15"/>
-        <v>54.365297986642531</v>
+        <v>2.7059361806038851</v>
       </c>
       <c r="U13">
         <f t="shared" si="4"/>
@@ -36523,7 +38506,7 @@
       </c>
       <c r="T14">
         <f t="shared" si="15"/>
-        <v>57.471234167246394</v>
+        <v>5.8118723612077474</v>
       </c>
       <c r="U14">
         <f t="shared" si="4"/>
@@ -36664,7 +38647,7 @@
       </c>
       <c r="T15">
         <f t="shared" si="15"/>
-        <v>60.977170347850233</v>
+        <v>3.5059361806038396</v>
       </c>
       <c r="U15">
         <f t="shared" si="4"/>
@@ -36805,7 +38788,7 @@
       </c>
       <c r="T16">
         <f t="shared" si="15"/>
-        <v>64.483106528454073</v>
+        <v>7.0118723612076792</v>
       </c>
       <c r="U16">
         <f t="shared" si="4"/>
@@ -36945,7 +38928,7 @@
       </c>
       <c r="T17">
         <f t="shared" si="15"/>
-        <v>71.189042709057958</v>
+        <v>6.7059361806038851</v>
       </c>
       <c r="U17">
         <f t="shared" si="4"/>
@@ -37086,7 +39069,7 @@
       </c>
       <c r="T18">
         <f t="shared" si="15"/>
-        <v>78.494978889661809</v>
+        <v>7.305936180603851</v>
       </c>
       <c r="U18">
         <f t="shared" si="4"/>
@@ -37226,7 +39209,7 @@
       </c>
       <c r="T19">
         <f t="shared" si="15"/>
-        <v>85.600915070265671</v>
+        <v>7.1059361806038623</v>
       </c>
       <c r="U19">
         <f t="shared" si="4"/>
@@ -37367,7 +39350,7 @@
       </c>
       <c r="T20">
         <f t="shared" si="15"/>
-        <v>89.706851250869533</v>
+        <v>4.1059361806038623</v>
       </c>
       <c r="U20">
         <f t="shared" si="4"/>
@@ -37501,7 +39484,7 @@
       </c>
       <c r="T21">
         <f t="shared" si="15"/>
-        <v>95.612787431473407</v>
+        <v>10.011872361207736</v>
       </c>
       <c r="U21">
         <f t="shared" si="4"/>
@@ -37642,7 +39625,7 @@
       </c>
       <c r="T22">
         <f t="shared" si="15"/>
-        <v>102.11872361207725</v>
+        <v>6.5059361806038396</v>
       </c>
       <c r="U22">
         <f t="shared" si="4"/>
@@ -37783,7 +39766,7 @@
       </c>
       <c r="T23">
         <f t="shared" si="15"/>
-        <v>100.4246597926811</v>
+        <v>-1.694063819396149</v>
       </c>
       <c r="U23">
         <f t="shared" si="4"/>
@@ -37924,7 +39907,7 @@
       </c>
       <c r="T24">
         <f t="shared" si="15"/>
-        <v>104.93059597328494</v>
+        <v>2.8118723612076906</v>
       </c>
       <c r="U24">
         <f t="shared" si="4"/>
@@ -38065,7 +40048,7 @@
       </c>
       <c r="T25">
         <f t="shared" si="15"/>
-        <v>108.23653215388879</v>
+        <v>6.1178085418115415</v>
       </c>
       <c r="U25">
         <f t="shared" si="4"/>
@@ -38205,7 +40188,7 @@
       </c>
       <c r="T26">
         <f t="shared" si="15"/>
-        <v>110.54246833449264</v>
+        <v>2.305936180603851</v>
       </c>
       <c r="U26">
         <f t="shared" si="4"/>
@@ -38346,7 +40329,7 @@
       </c>
       <c r="T27">
         <f t="shared" si="15"/>
-        <v>113.24840451509652</v>
+        <v>5.011872361207736</v>
       </c>
       <c r="U27">
         <f t="shared" si="4"/>
@@ -38486,7 +40469,7 @@
       </c>
       <c r="T28">
         <f t="shared" si="15"/>
-        <v>118.1543406957004</v>
+        <v>9.9178085418116098</v>
       </c>
       <c r="U28">
         <f t="shared" si="4"/>
@@ -38627,7 +40610,7 @@
       </c>
       <c r="T29">
         <f t="shared" si="15"/>
-        <v>116.06027687630427</v>
+        <v>-2.0940638193961263</v>
       </c>
       <c r="U29">
         <f t="shared" si="4"/>
@@ -38761,7 +40744,7 @@
       </c>
       <c r="T30">
         <f t="shared" si="15"/>
-        <v>119.56621305690811</v>
+        <v>1.4118723612077133</v>
       </c>
       <c r="U30">
         <f t="shared" si="4"/>
@@ -38895,7 +40878,7 @@
       </c>
       <c r="T31">
         <f t="shared" si="15"/>
-        <v>121.87214923751196</v>
+        <v>3.7178085418115643</v>
       </c>
       <c r="U31">
         <f t="shared" si="4"/>
@@ -39029,7 +41012,7 @@
       </c>
       <c r="T32">
         <f t="shared" si="15"/>
-        <v>122.77808541811584</v>
+        <v>4.623744722415438</v>
       </c>
       <c r="U32">
         <f t="shared" si="4"/>
@@ -39163,7 +41146,7 @@
       </c>
       <c r="T33">
         <f t="shared" si="15"/>
-        <v>127.8840215987197</v>
+        <v>9.7296809030193003</v>
       </c>
       <c r="U33">
         <f t="shared" si="4"/>
@@ -39297,7 +41280,7 @@
       </c>
       <c r="T34">
         <f t="shared" si="15"/>
-        <v>128.78995777932357</v>
+        <v>0.90593618060387371</v>
       </c>
       <c r="U34">
         <f t="shared" si="4"/>
@@ -39431,7 +41414,7 @@
       </c>
       <c r="T35">
         <f t="shared" si="15"/>
-        <v>132.49589395992746</v>
+        <v>4.6118723612077588</v>
       </c>
       <c r="U35">
         <f t="shared" si="4"/>
@@ -39565,7 +41548,7 @@
       </c>
       <c r="T36">
         <f t="shared" si="15"/>
-        <v>137.20183014053134</v>
+        <v>9.3178085418116439</v>
       </c>
       <c r="U36">
         <f t="shared" si="4"/>
@@ -39699,7 +41682,7 @@
       </c>
       <c r="T37">
         <f t="shared" si="15"/>
-        <v>142.3077663211352</v>
+        <v>5.1059361806038623</v>
       </c>
       <c r="U37">
         <f t="shared" si="4"/>
@@ -39833,7 +41816,7 @@
       </c>
       <c r="T38">
         <f t="shared" si="15"/>
-        <v>145.81370250173904</v>
+        <v>8.6118723612077019</v>
       </c>
       <c r="U38">
         <f t="shared" si="4"/>
@@ -39967,7 +41950,7 @@
       </c>
       <c r="T39">
         <f t="shared" si="15"/>
-        <v>151.31963868234288</v>
+        <v>5.5059361806038396</v>
       </c>
       <c r="U39">
         <f t="shared" si="4"/>
@@ -40101,7 +42084,7 @@
       </c>
       <c r="T40">
         <f t="shared" si="15"/>
-        <v>150.62557486294673</v>
+        <v>-0.69406381939614903</v>
       </c>
       <c r="U40">
         <f t="shared" si="4"/>
@@ -40235,7 +42218,7 @@
       </c>
       <c r="T41">
         <f t="shared" si="15"/>
-        <v>158.13151104355057</v>
+        <v>6.8118723612076906</v>
       </c>
       <c r="U41">
         <f t="shared" si="4"/>
@@ -40369,7 +42352,7 @@
       </c>
       <c r="T42">
         <f t="shared" si="15"/>
-        <v>160.23744722415444</v>
+        <v>2.1059361806038623</v>
       </c>
       <c r="U42">
         <f t="shared" si="4"/>
@@ -40671,15 +42654,15 @@
         <f>1.6</f>
         <v>1.6</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
@@ -40818,7 +42801,7 @@
         <v>360</v>
       </c>
       <c r="U3">
-        <f>AVERAGE(P3:T3)</f>
+        <f t="shared" ref="U3:U22" si="0">AVERAGE(P3:T3)</f>
         <v>355.2</v>
       </c>
       <c r="V3">
@@ -40881,7 +42864,7 @@
         <v>354</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L47" si="0">AVERAGE(G4:K4)</f>
+        <f t="shared" ref="L4:L47" si="1">AVERAGE(G4:K4)</f>
         <v>353.8</v>
       </c>
       <c r="M4" t="s">
@@ -40910,11 +42893,11 @@
         <v>361</v>
       </c>
       <c r="U4">
-        <f>AVERAGE(P4:T4)</f>
+        <f t="shared" si="0"/>
         <v>355.6</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V47" si="1">U4-($N$5+$N$6)</f>
+        <f t="shared" ref="V4:V42" si="2">U4-($N$5+$N$6)</f>
         <v>1.4940638193961604</v>
       </c>
       <c r="W4">
@@ -40926,7 +42909,7 @@
         <v>2</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y47" si="2">U4-($N$5-$N$6)</f>
+        <f t="shared" ref="Y4:Y42" si="3">U4-($N$5-$N$6)</f>
         <v>9.7059361806038851</v>
       </c>
       <c r="Z4">
@@ -40938,11 +42921,11 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB42" si="3">$N$7</f>
+        <f t="shared" ref="AB4:AB42" si="4">$N$7</f>
         <v>16.986288703677289</v>
       </c>
       <c r="AC4">
-        <f t="shared" ref="AC4:AC42" si="4">-$N$7</f>
+        <f t="shared" ref="AC4:AC42" si="5">-$N$7</f>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -40973,7 +42956,7 @@
         <v>357</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>353.6</v>
       </c>
       <c r="M5" t="s">
@@ -41001,39 +42984,39 @@
         <v>364</v>
       </c>
       <c r="U5">
-        <f>AVERAGE(P5:T5)</f>
+        <f t="shared" si="0"/>
         <v>317.60000000000002</v>
       </c>
       <c r="V5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-36.50593618060384</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:W47" si="5">MAX(0,V5+W4)</f>
+        <f t="shared" ref="W5:W42" si="6">MAX(0,V5+W4)</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X5:X42" si="6">IF(W5&gt;0,1+X4,0)</f>
+        <f t="shared" ref="X5:X42" si="7">IF(W5&gt;0,1+X4,0)</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-28.294063819396115</v>
       </c>
       <c r="Z5">
-        <f t="shared" ref="Z5:Z47" si="7">MIN(0,Y5+Z4)</f>
+        <f t="shared" ref="Z5:Z42" si="8">MIN(0,Y5+Z4)</f>
         <v>-28.294063819396115</v>
       </c>
       <c r="AA5">
-        <f t="shared" ref="AA5:AA42" si="8">IF(Z5&lt;0,1+AA4,0)</f>
+        <f t="shared" ref="AA5:AA42" si="9">IF(Z5&lt;0,1+AA4,0)</f>
         <v>1</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -41057,7 +43040,7 @@
         <v>361</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>357.6</v>
       </c>
       <c r="M6" t="s">
@@ -41086,39 +43069,39 @@
         <v>364</v>
       </c>
       <c r="U6">
-        <f>AVERAGE(P6:T6)</f>
+        <f t="shared" si="0"/>
         <v>359</v>
       </c>
       <c r="V6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8940638193961377</v>
       </c>
       <c r="W6">
+        <f t="shared" si="6"/>
+        <v>4.8940638193961377</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="3"/>
+        <v>13.105936180603862</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="8"/>
+        <v>-15.188127638792253</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="4"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC6">
         <f t="shared" si="5"/>
-        <v>4.8940638193961377</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="2"/>
-        <v>13.105936180603862</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="7"/>
-        <v>-15.188127638792253</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="3"/>
-        <v>16.986288703677289</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="4"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -41130,7 +43113,7 @@
         <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
         <v>161</v>
@@ -41157,7 +43140,7 @@
         <v>357</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>353.8</v>
       </c>
       <c r="M7" t="s">
@@ -41186,39 +43169,39 @@
         <v>359</v>
       </c>
       <c r="U7">
-        <f>AVERAGE(P7:T7)</f>
+        <f t="shared" si="0"/>
         <v>354</v>
       </c>
       <c r="V7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.10593618060386234</v>
       </c>
       <c r="W7">
+        <f t="shared" si="6"/>
+        <v>4.7881276387922753</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="3"/>
+        <v>8.1059361806038623</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="8"/>
+        <v>-7.0821914581883902</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="4"/>
+        <v>16.986288703677289</v>
+      </c>
+      <c r="AC7">
         <f t="shared" si="5"/>
-        <v>4.7881276387922753</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="2"/>
-        <v>8.1059361806038623</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="7"/>
-        <v>-7.0821914581883902</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="3"/>
-        <v>16.986288703677289</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="4"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -41230,16 +43213,15 @@
         <v>0.5</v>
       </c>
       <c r="C8">
-        <f>B8/2</f>
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="D8">
         <f>$B$3</f>
         <v>4.4756059863607636</v>
       </c>
       <c r="E8">
-        <f>(B8^2/2/(EXP(-B8*D8)-1+B8*D8)+(3*B8)^2/2/(EXP(3*B8*D8)-1-3*B8*D8))^-1</f>
-        <v>10.598730971117632</v>
+        <f>(2*(B8-C8)^2/(EXP(-2*(B8-C8)*D8)-1+2*(B8-C8)*D8)+2*(B8+C8)^2/(EXP(2*(B8+C8)*D8)-1-2*(B8+C8)*D8))^-1</f>
+        <v>60.878909575363323</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -41260,7 +43242,7 @@
         <v>356</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>352.4</v>
       </c>
       <c r="O8">
@@ -41282,39 +43264,39 @@
         <v>360</v>
       </c>
       <c r="U8">
-        <f>AVERAGE(P8:T8)</f>
+        <f t="shared" si="0"/>
         <v>354.8</v>
       </c>
       <c r="V8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69406381939614903</v>
       </c>
       <c r="W8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.4821914581884243</v>
       </c>
       <c r="X8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.9059361806038737</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -41326,16 +43308,15 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C11" si="9">B9/2</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D11" si="10">$B$3</f>
         <v>4.4756059863607636</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E11" si="11">(B9^2/2/(EXP(-B9*D9)-1+B9*D9)+(3*B9)^2/2/(EXP(3*B9*D9)-1-3*B9*D9))^-1</f>
-        <v>6.9736557894580598</v>
+        <f t="shared" ref="E9:E11" si="11">(2*(B9-C9)^2/(EXP(-2*(B9-C9)*D9)-1+2*(B9-C9)*D9)+2*(B9+C9)^2/(EXP(2*(B9+C9)*D9)-1-2*(B9+C9)*D9))^-1</f>
+        <v>11.96443292523548</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -41356,7 +43337,7 @@
         <v>362</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>355.6</v>
       </c>
       <c r="O9">
@@ -41378,39 +43359,39 @@
         <v>362</v>
       </c>
       <c r="U9">
-        <f>AVERAGE(P9:T9)</f>
+        <f t="shared" si="0"/>
         <v>357</v>
       </c>
       <c r="V9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8940638193961377</v>
       </c>
       <c r="W9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.376255277584562</v>
       </c>
       <c r="X9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.105936180603862</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -41422,8 +43403,7 @@
         <v>1.5</v>
       </c>
       <c r="C10">
-        <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D10">
         <f t="shared" si="10"/>
@@ -41431,7 +43411,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="11"/>
-        <v>5.0796648620457647</v>
+        <v>5.3752532026413284</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -41452,7 +43432,7 @@
         <v>357</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>353.2</v>
       </c>
       <c r="O10">
@@ -41474,39 +43454,39 @@
         <v>358</v>
       </c>
       <c r="U10">
-        <f>AVERAGE(P10:T10)</f>
+        <f t="shared" si="0"/>
         <v>351.8</v>
       </c>
       <c r="V10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.305936180603851</v>
       </c>
       <c r="W10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.070319096980711</v>
       </c>
       <c r="X10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.9059361806038737</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -41518,8 +43498,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
         <f t="shared" si="10"/>
@@ -41527,7 +43506,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="11"/>
-        <v>3.9756707757504364</v>
+        <v>3.3824569409685616</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -41548,7 +43527,7 @@
         <v>358</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>355</v>
       </c>
       <c r="O11">
@@ -41570,39 +43549,39 @@
         <v>359</v>
       </c>
       <c r="U11">
-        <f>AVERAGE(P11:T11)</f>
+        <f t="shared" si="0"/>
         <v>353.4</v>
       </c>
       <c r="V11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.70593618060388508</v>
       </c>
       <c r="W11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.364382916376826</v>
       </c>
       <c r="X11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5059361806038396</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -41626,7 +43605,7 @@
         <v>360</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>354.4</v>
       </c>
       <c r="O12">
@@ -41648,39 +43627,39 @@
         <v>358</v>
       </c>
       <c r="U12">
-        <f>AVERAGE(P12:T12)</f>
+        <f t="shared" si="0"/>
         <v>352.2</v>
       </c>
       <c r="V12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.9059361806038737</v>
       </c>
       <c r="W12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4584467357729523</v>
       </c>
       <c r="X12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.305936180603851</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -41704,7 +43683,7 @@
         <v>359</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>354</v>
       </c>
       <c r="O13">
@@ -41726,39 +43705,39 @@
         <v>351</v>
       </c>
       <c r="U13">
-        <f>AVERAGE(P13:T13)</f>
+        <f t="shared" si="0"/>
         <v>348.6</v>
       </c>
       <c r="V13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.5059361806038396</v>
       </c>
       <c r="W13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y13">
-        <f t="shared" si="2"/>
-        <v>2.7059361806038851</v>
-      </c>
-      <c r="Z13">
+      <c r="X13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA13">
+      <c r="Y13">
+        <f t="shared" si="3"/>
+        <v>2.7059361806038851</v>
+      </c>
+      <c r="Z13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -41782,7 +43761,7 @@
         <v>356</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>353.2</v>
       </c>
       <c r="O14">
@@ -41804,39 +43783,39 @@
         <v>351</v>
       </c>
       <c r="U14">
-        <f>AVERAGE(P14:T14)</f>
+        <f t="shared" si="0"/>
         <v>349</v>
       </c>
       <c r="V14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.1059361806038623</v>
       </c>
       <c r="W14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y14">
-        <f t="shared" si="2"/>
-        <v>3.1059361806038623</v>
-      </c>
-      <c r="Z14">
+      <c r="X14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA14">
+      <c r="Y14">
+        <f t="shared" si="3"/>
+        <v>3.1059361806038623</v>
+      </c>
+      <c r="Z14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -41860,7 +43839,7 @@
         <v>359</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>354.2</v>
       </c>
       <c r="O15">
@@ -41882,39 +43861,39 @@
         <v>355</v>
       </c>
       <c r="U15">
-        <f>AVERAGE(P15:T15)</f>
+        <f t="shared" si="0"/>
         <v>349.4</v>
       </c>
       <c r="V15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.7059361806038851</v>
       </c>
       <c r="W15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y15">
-        <f t="shared" si="2"/>
-        <v>3.5059361806038396</v>
-      </c>
-      <c r="Z15">
+      <c r="X15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA15">
+      <c r="Y15">
+        <f t="shared" si="3"/>
+        <v>3.5059361806038396</v>
+      </c>
+      <c r="Z15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -41938,7 +43917,7 @@
         <v>358</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>353.8</v>
       </c>
       <c r="O16">
@@ -41960,39 +43939,39 @@
         <v>356</v>
       </c>
       <c r="U16">
-        <f>AVERAGE(P16:T16)</f>
+        <f t="shared" si="0"/>
         <v>349.4</v>
       </c>
       <c r="V16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.7059361806038851</v>
       </c>
       <c r="W16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y16">
-        <f t="shared" si="2"/>
-        <v>3.5059361806038396</v>
-      </c>
-      <c r="Z16">
+      <c r="X16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA16">
+      <c r="Y16">
+        <f t="shared" si="3"/>
+        <v>3.5059361806038396</v>
+      </c>
+      <c r="Z16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -42016,7 +43995,7 @@
         <v>360</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>354.6</v>
       </c>
       <c r="O17">
@@ -42038,39 +44017,39 @@
         <v>357</v>
       </c>
       <c r="U17">
-        <f>AVERAGE(P17:T17)</f>
+        <f t="shared" si="0"/>
         <v>352.6</v>
       </c>
       <c r="V17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.5059361806038396</v>
       </c>
       <c r="W17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y17">
-        <f t="shared" si="2"/>
-        <v>6.7059361806038851</v>
-      </c>
-      <c r="Z17">
+      <c r="X17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA17">
+      <c r="Y17">
+        <f t="shared" si="3"/>
+        <v>6.7059361806038851</v>
+      </c>
+      <c r="Z17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -42094,61 +44073,61 @@
         <v>357</v>
       </c>
       <c r="L18">
+        <f t="shared" si="1"/>
+        <v>353.2</v>
+      </c>
+      <c r="O18">
+        <v>61</v>
+      </c>
+      <c r="P18">
+        <v>350</v>
+      </c>
+      <c r="Q18">
+        <v>351</v>
+      </c>
+      <c r="R18">
+        <v>360</v>
+      </c>
+      <c r="S18">
+        <v>350</v>
+      </c>
+      <c r="T18">
+        <v>355</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="0"/>
         <v>353.2</v>
       </c>
-      <c r="O18">
-        <v>61</v>
-      </c>
-      <c r="P18">
-        <v>350</v>
-      </c>
-      <c r="Q18">
-        <v>351</v>
-      </c>
-      <c r="R18">
-        <v>360</v>
-      </c>
-      <c r="S18">
-        <v>350</v>
-      </c>
-      <c r="T18">
-        <v>355</v>
-      </c>
-      <c r="U18">
-        <f>AVERAGE(P18:T18)</f>
-        <v>353.2</v>
-      </c>
       <c r="V18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.90593618060387371</v>
       </c>
       <c r="W18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y18">
-        <f t="shared" si="2"/>
-        <v>7.305936180603851</v>
-      </c>
-      <c r="Z18">
+      <c r="X18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA18">
+      <c r="Y18">
+        <f t="shared" si="3"/>
+        <v>7.305936180603851</v>
+      </c>
+      <c r="Z18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -42172,7 +44151,7 @@
         <v>374</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>370.4</v>
       </c>
       <c r="O19">
@@ -42194,39 +44173,39 @@
         <v>354</v>
       </c>
       <c r="U19">
-        <f>AVERAGE(P19:T19)</f>
+        <f t="shared" si="0"/>
         <v>353</v>
       </c>
       <c r="V19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.1059361806038623</v>
       </c>
       <c r="W19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y19">
-        <f t="shared" si="2"/>
-        <v>7.1059361806038623</v>
-      </c>
-      <c r="Z19">
+      <c r="X19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA19">
+      <c r="Y19">
+        <f t="shared" si="3"/>
+        <v>7.1059361806038623</v>
+      </c>
+      <c r="Z19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -42250,7 +44229,7 @@
         <v>361</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>357.2</v>
       </c>
       <c r="O20">
@@ -42272,39 +44251,39 @@
         <v>355</v>
       </c>
       <c r="U20">
-        <f>AVERAGE(P20:T20)</f>
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
       <c r="V20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.1059361806038623</v>
       </c>
       <c r="W20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y20">
-        <f t="shared" si="2"/>
-        <v>4.1059361806038623</v>
-      </c>
-      <c r="Z20">
+      <c r="X20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA20">
+      <c r="Y20">
+        <f t="shared" si="3"/>
+        <v>4.1059361806038623</v>
+      </c>
+      <c r="Z20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -42328,7 +44307,7 @@
         <v>366</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>359.4</v>
       </c>
       <c r="O21">
@@ -42350,39 +44329,39 @@
         <v>357</v>
       </c>
       <c r="U21">
-        <f>AVERAGE(P21:T21)</f>
+        <f t="shared" si="0"/>
         <v>351.8</v>
       </c>
       <c r="V21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.305936180603851</v>
       </c>
       <c r="W21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y21">
-        <f t="shared" si="2"/>
-        <v>5.9059361806038737</v>
-      </c>
-      <c r="Z21">
+      <c r="X21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA21">
+      <c r="Y21">
+        <f t="shared" si="3"/>
+        <v>5.9059361806038737</v>
+      </c>
+      <c r="Z21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -42406,7 +44385,7 @@
         <v>362</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>356.6</v>
       </c>
       <c r="O22">
@@ -42428,39 +44407,39 @@
         <v>357</v>
       </c>
       <c r="U22">
-        <f>AVERAGE(P22:T22)</f>
+        <f t="shared" si="0"/>
         <v>352.4</v>
       </c>
       <c r="V22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.7059361806038851</v>
       </c>
       <c r="W22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X22">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y22">
-        <f t="shared" si="2"/>
-        <v>6.5059361806038396</v>
-      </c>
-      <c r="Z22">
+      <c r="X22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA22">
+      <c r="Y22">
+        <f t="shared" si="3"/>
+        <v>6.5059361806038396</v>
+      </c>
+      <c r="Z22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -42484,7 +44463,7 @@
         <v>364</v>
       </c>
       <c r="L23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>357.8</v>
       </c>
       <c r="O23">
@@ -42510,35 +44489,35 @@
         <v>344.2</v>
       </c>
       <c r="V23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.9059361806038737</v>
       </c>
       <c r="W23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="X23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Y23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.694063819396149</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.694063819396149</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -42562,7 +44541,7 @@
         <v>360</v>
       </c>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>356.8</v>
       </c>
       <c r="O24">
@@ -42588,35 +44567,35 @@
         <v>350.4</v>
       </c>
       <c r="V24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.7059361806038851</v>
       </c>
       <c r="W24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y24">
-        <f t="shared" si="2"/>
-        <v>4.5059361806038396</v>
-      </c>
-      <c r="Z24">
+      <c r="X24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA24">
+      <c r="Y24">
+        <f t="shared" si="3"/>
+        <v>4.5059361806038396</v>
+      </c>
+      <c r="Z24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -42640,7 +44619,7 @@
         <v>366</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360.6</v>
       </c>
       <c r="O25">
@@ -42666,35 +44645,35 @@
         <v>349.2</v>
       </c>
       <c r="V25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.9059361806038737</v>
       </c>
       <c r="W25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y25">
-        <f t="shared" si="2"/>
-        <v>3.305936180603851</v>
-      </c>
-      <c r="Z25">
+      <c r="X25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA25">
+      <c r="Y25">
+        <f t="shared" si="3"/>
+        <v>3.305936180603851</v>
+      </c>
+      <c r="Z25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -42718,7 +44697,7 @@
         <v>366</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360.2</v>
       </c>
       <c r="O26">
@@ -42744,35 +44723,35 @@
         <v>348.2</v>
       </c>
       <c r="V26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.9059361806038737</v>
       </c>
       <c r="W26">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y26">
-        <f t="shared" si="2"/>
-        <v>2.305936180603851</v>
-      </c>
-      <c r="Z26">
+      <c r="X26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA26">
+      <c r="Y26">
+        <f t="shared" si="3"/>
+        <v>2.305936180603851</v>
+      </c>
+      <c r="Z26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -42796,7 +44775,7 @@
         <v>364</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>358.8</v>
       </c>
       <c r="O27">
@@ -42822,35 +44801,35 @@
         <v>348.6</v>
       </c>
       <c r="V27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.5059361806038396</v>
       </c>
       <c r="W27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y27">
-        <f t="shared" si="2"/>
-        <v>2.7059361806038851</v>
-      </c>
-      <c r="Z27">
+      <c r="X27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA27">
+      <c r="Y27">
+        <f t="shared" si="3"/>
+        <v>2.7059361806038851</v>
+      </c>
+      <c r="Z27">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -42874,7 +44853,7 @@
         <v>338</v>
       </c>
       <c r="L28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>338</v>
       </c>
       <c r="O28">
@@ -42900,35 +44879,35 @@
         <v>350.8</v>
       </c>
       <c r="V28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.305936180603851</v>
       </c>
       <c r="W28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y28">
-        <f t="shared" si="2"/>
-        <v>4.9059361806038737</v>
-      </c>
-      <c r="Z28">
+      <c r="X28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA28">
+      <c r="Y28">
+        <f t="shared" si="3"/>
+        <v>4.9059361806038737</v>
+      </c>
+      <c r="Z28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -42952,7 +44931,7 @@
         <v>361</v>
       </c>
       <c r="L29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>354.6</v>
       </c>
       <c r="O29">
@@ -42978,35 +44957,35 @@
         <v>343.8</v>
       </c>
       <c r="V29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-10.305936180603851</v>
       </c>
       <c r="W29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="X29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Y29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.0940638193961263</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2.0940638193961263</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -43030,7 +45009,7 @@
         <v>350</v>
       </c>
       <c r="L30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>349.2</v>
       </c>
       <c r="O30">
@@ -43056,35 +45035,35 @@
         <v>349.4</v>
       </c>
       <c r="V30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.7059361806038851</v>
       </c>
       <c r="W30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y30">
-        <f t="shared" si="2"/>
-        <v>3.5059361806038396</v>
-      </c>
-      <c r="Z30">
+      <c r="X30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA30">
+      <c r="Y30">
+        <f t="shared" si="3"/>
+        <v>3.5059361806038396</v>
+      </c>
+      <c r="Z30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -43108,7 +45087,7 @@
         <v>361</v>
       </c>
       <c r="L31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>356.6</v>
       </c>
       <c r="O31">
@@ -43134,35 +45113,35 @@
         <v>348.2</v>
       </c>
       <c r="V31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.9059361806038737</v>
       </c>
       <c r="W31">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y31">
-        <f t="shared" si="2"/>
-        <v>2.305936180603851</v>
-      </c>
-      <c r="Z31">
+      <c r="X31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA31">
+      <c r="Y31">
+        <f t="shared" si="3"/>
+        <v>2.305936180603851</v>
+      </c>
+      <c r="Z31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -43186,7 +45165,7 @@
         <v>361</v>
       </c>
       <c r="L32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>357</v>
       </c>
       <c r="O32">
@@ -43212,35 +45191,35 @@
         <v>346.8</v>
       </c>
       <c r="V32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.305936180603851</v>
       </c>
       <c r="W32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y32">
-        <f t="shared" si="2"/>
-        <v>0.90593618060387371</v>
-      </c>
-      <c r="Z32">
+      <c r="X32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA32">
+      <c r="Y32">
+        <f t="shared" si="3"/>
+        <v>0.90593618060387371</v>
+      </c>
+      <c r="Z32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -43264,7 +45243,7 @@
         <v>362</v>
       </c>
       <c r="L33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>356.8</v>
       </c>
       <c r="O33">
@@ -43290,35 +45269,35 @@
         <v>351</v>
       </c>
       <c r="V33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.1059361806038623</v>
       </c>
       <c r="W33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y33">
-        <f t="shared" si="2"/>
-        <v>5.1059361806038623</v>
-      </c>
-      <c r="Z33">
+      <c r="X33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA33">
+      <c r="Y33">
+        <f t="shared" si="3"/>
+        <v>5.1059361806038623</v>
+      </c>
+      <c r="Z33">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -43342,7 +45321,7 @@
         <v>362</v>
       </c>
       <c r="L34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>355.4</v>
       </c>
       <c r="O34">
@@ -43368,35 +45347,35 @@
         <v>346.8</v>
       </c>
       <c r="V34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.305936180603851</v>
       </c>
       <c r="W34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y34">
-        <f t="shared" si="2"/>
-        <v>0.90593618060387371</v>
-      </c>
-      <c r="Z34">
+      <c r="X34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA34">
+      <c r="Y34">
+        <f t="shared" si="3"/>
+        <v>0.90593618060387371</v>
+      </c>
+      <c r="Z34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -43420,7 +45399,7 @@
         <v>361</v>
       </c>
       <c r="L35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>354.8</v>
       </c>
       <c r="O35">
@@ -43446,35 +45425,35 @@
         <v>349.6</v>
       </c>
       <c r="V35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.5059361806038396</v>
       </c>
       <c r="W35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y35">
-        <f t="shared" si="2"/>
-        <v>3.7059361806038851</v>
-      </c>
-      <c r="Z35">
+      <c r="X35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA35">
+      <c r="Y35">
+        <f t="shared" si="3"/>
+        <v>3.7059361806038851</v>
+      </c>
+      <c r="Z35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -43498,7 +45477,7 @@
         <v>358</v>
       </c>
       <c r="L36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>352.6</v>
       </c>
       <c r="O36">
@@ -43524,35 +45503,35 @@
         <v>350.6</v>
       </c>
       <c r="V36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.5059361806038396</v>
       </c>
       <c r="W36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y36">
-        <f t="shared" si="2"/>
-        <v>4.7059361806038851</v>
-      </c>
-      <c r="Z36">
+      <c r="X36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA36">
+      <c r="Y36">
+        <f t="shared" si="3"/>
+        <v>4.7059361806038851</v>
+      </c>
+      <c r="Z36">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -43576,7 +45555,7 @@
         <v>351</v>
       </c>
       <c r="L37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>351</v>
       </c>
       <c r="O37">
@@ -43602,35 +45581,35 @@
         <v>351</v>
       </c>
       <c r="V37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.1059361806038623</v>
       </c>
       <c r="W37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y37">
-        <f t="shared" si="2"/>
-        <v>5.1059361806038623</v>
-      </c>
-      <c r="Z37">
+      <c r="X37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA37">
+      <c r="Y37">
+        <f t="shared" si="3"/>
+        <v>5.1059361806038623</v>
+      </c>
+      <c r="Z37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -43654,7 +45633,7 @@
         <v>350</v>
       </c>
       <c r="L38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>351.2</v>
       </c>
       <c r="O38">
@@ -43680,35 +45659,35 @@
         <v>349.4</v>
       </c>
       <c r="V38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.7059361806038851</v>
       </c>
       <c r="W38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y38">
-        <f t="shared" si="2"/>
-        <v>3.5059361806038396</v>
-      </c>
-      <c r="Z38">
+      <c r="X38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA38">
+      <c r="Y38">
+        <f t="shared" si="3"/>
+        <v>3.5059361806038396</v>
+      </c>
+      <c r="Z38">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -43732,7 +45711,7 @@
         <v>353</v>
       </c>
       <c r="L39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>348</v>
       </c>
       <c r="O39">
@@ -43758,35 +45737,35 @@
         <v>351.4</v>
       </c>
       <c r="V39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.7059361806038851</v>
       </c>
       <c r="W39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y39">
-        <f t="shared" si="2"/>
-        <v>5.5059361806038396</v>
-      </c>
-      <c r="Z39">
+      <c r="X39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA39">
+      <c r="Y39">
+        <f t="shared" si="3"/>
+        <v>5.5059361806038396</v>
+      </c>
+      <c r="Z39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -43810,7 +45789,7 @@
         <v>364</v>
       </c>
       <c r="L40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>357.8</v>
       </c>
       <c r="O40">
@@ -43836,35 +45815,35 @@
         <v>345.2</v>
       </c>
       <c r="V40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.9059361806038737</v>
       </c>
       <c r="W40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="X40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Y40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.69406381939614903</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.69406381939614903</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -43888,7 +45867,7 @@
         <v>361</v>
       </c>
       <c r="L41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>354.6</v>
       </c>
       <c r="O41">
@@ -43914,35 +45893,35 @@
         <v>353.4</v>
       </c>
       <c r="V41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.70593618060388508</v>
       </c>
       <c r="W41">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y41">
-        <f t="shared" si="2"/>
-        <v>7.5059361806038396</v>
-      </c>
-      <c r="Z41">
+      <c r="X41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA41">
+      <c r="Y41">
+        <f t="shared" si="3"/>
+        <v>7.5059361806038396</v>
+      </c>
+      <c r="Z41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -43966,7 +45945,7 @@
         <v>352</v>
       </c>
       <c r="L42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>352.4</v>
       </c>
       <c r="O42">
@@ -43992,35 +45971,35 @@
         <v>348</v>
       </c>
       <c r="V42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.1059361806038623</v>
       </c>
       <c r="W42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y42">
-        <f t="shared" si="2"/>
-        <v>2.1059361806038623</v>
-      </c>
-      <c r="Z42">
+      <c r="X42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA42">
+      <c r="Y42">
+        <f t="shared" si="3"/>
+        <v>2.1059361806038623</v>
+      </c>
+      <c r="Z42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AA42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AB42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.986288703677289</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.986288703677289</v>
       </c>
     </row>
@@ -44044,7 +46023,7 @@
         <v>360</v>
       </c>
       <c r="L43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>354.6</v>
       </c>
     </row>
@@ -44068,7 +46047,7 @@
         <v>336</v>
       </c>
       <c r="L44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>336.2</v>
       </c>
       <c r="Y44" t="s">
@@ -44095,7 +46074,7 @@
         <v>358</v>
       </c>
       <c r="L45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>352.6</v>
       </c>
       <c r="Y45">
@@ -44123,7 +46102,7 @@
         <v>362</v>
       </c>
       <c r="L46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>356</v>
       </c>
     </row>
@@ -44147,7 +46126,7 @@
         <v>358</v>
       </c>
       <c r="L47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>353.4</v>
       </c>
     </row>
@@ -44173,31 +46152,128 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A2885C-1C5A-4D26-A9AC-666B4D4F8AB7}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.25" customWidth="1"/>
+    <col min="19" max="19" width="12.5" customWidth="1"/>
+    <col min="20" max="24" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:28">
       <c r="A1" s="6" t="s">
         <v>163</v>
       </c>
       <c r="B1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="J1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1">
+        <f>AVERAGE(P3:P47)</f>
+        <v>354.39111111111112</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA1">
+        <f>R6</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2">
+        <f>_xlfn.VAR.S(P3:P47)</f>
+        <v>26.341737373737384</v>
+      </c>
+      <c r="S2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -44205,78 +46281,2658 @@
         <f>2*LN(1.0234*(2/PI())^0.5*B1^2*B2)</f>
         <v>13.90390884331558</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="40" t="s">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>355</v>
+      </c>
+      <c r="L3">
+        <v>351</v>
+      </c>
+      <c r="M3">
+        <v>356</v>
+      </c>
+      <c r="N3">
+        <v>352</v>
+      </c>
+      <c r="O3">
+        <v>359</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE(K3:O3)</f>
+        <v>354.6</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <f>R2^0.5</f>
+        <v>5.1324202257548421</v>
+      </c>
+      <c r="S3">
+        <v>46</v>
+      </c>
+      <c r="T3">
+        <v>351</v>
+      </c>
+      <c r="U3">
+        <v>352</v>
+      </c>
+      <c r="V3">
+        <v>361</v>
+      </c>
+      <c r="W3">
+        <v>352</v>
+      </c>
+      <c r="X3">
+        <v>360</v>
+      </c>
+      <c r="Y3">
+        <f>AVERAGE(T3:X3)</f>
+        <v>355.2</v>
+      </c>
+      <c r="Z3">
+        <f>$R$4*Y3+(1-R4)*AA1</f>
+        <v>351.20864234030842</v>
+      </c>
+      <c r="AA3">
+        <f>$R$6+$R$5*$R$3*($R$4/(2-$R$4)*(1-(1-$R$4)^(2*J3)))^0.5</f>
+        <v>353.72781332635526</v>
+      </c>
+      <c r="AB3">
+        <f>$R$6-$R$5*$R$3*($R$4/(2-$R$4)*(1-(1-$R$4)^(2*J3)))^0.5</f>
+        <v>346.27218667364474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="35" t="s">
         <v>174</v>
       </c>
       <c r="B4">
         <f>1.0234*B1^2/(B3-LN(B3))</f>
         <v>0.23243121929008978</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="40" t="s">
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>353</v>
+      </c>
+      <c r="L4">
+        <v>351</v>
+      </c>
+      <c r="M4">
+        <v>359</v>
+      </c>
+      <c r="N4">
+        <v>352</v>
+      </c>
+      <c r="O4">
+        <v>354</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P67" si="0">AVERAGE(K4:O4)</f>
+        <v>353.8</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="R4">
+        <f>B4</f>
+        <v>0.23243121929008978</v>
+      </c>
+      <c r="S4">
+        <v>47</v>
+      </c>
+      <c r="T4">
+        <v>351</v>
+      </c>
+      <c r="U4">
+        <v>353</v>
+      </c>
+      <c r="V4">
+        <v>360</v>
+      </c>
+      <c r="W4">
+        <v>353</v>
+      </c>
+      <c r="X4">
+        <v>361</v>
+      </c>
+      <c r="Y4">
+        <f>AVERAGE(T4:X4)</f>
+        <v>355.6</v>
+      </c>
+      <c r="Z4">
+        <f>$R$4*Y4+(1-$R$4)*Z3</f>
+        <v>352.22933095548939</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA47" si="1">$R$6+$R$5*$R$3*($R$4/(2-$R$4)*(1-(1-$R$4)^(2*J4)))^0.5</f>
+        <v>354.69935462894261</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB47" si="2">$R$6-$R$5*$R$3*($R$4/(2-$R$4)*(1-(1-$R$4)^(2*J4)))^0.5</f>
+        <v>345.30064537105739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="35" t="s">
         <v>175</v>
       </c>
       <c r="B5">
         <f>(B3-LN(B3))^0.5-B4</f>
         <v>3.1249098165539344</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>351</v>
+      </c>
+      <c r="L5">
+        <v>351</v>
+      </c>
+      <c r="M5">
+        <v>357</v>
+      </c>
+      <c r="N5">
+        <v>352</v>
+      </c>
+      <c r="O5">
+        <v>357</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>353.6</v>
+      </c>
+      <c r="Q5" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="R5">
+        <f>B5</f>
+        <v>3.1249098165539344</v>
+      </c>
+      <c r="S5">
+        <v>48</v>
+      </c>
+      <c r="T5">
+        <v>355</v>
+      </c>
+      <c r="U5">
+        <v>355</v>
+      </c>
+      <c r="V5">
+        <v>262</v>
+      </c>
+      <c r="W5">
+        <v>252</v>
+      </c>
+      <c r="X5">
+        <v>364</v>
+      </c>
+      <c r="Y5">
+        <f>AVERAGE(T5:X5)</f>
+        <v>317.60000000000002</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z47" si="3">$R$4*Y5+(1-$R$4)*Z4</f>
+        <v>344.18039333830495</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="1"/>
+        <v>355.18725391628527</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="2"/>
+        <v>344.81274608371473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>353</v>
+      </c>
+      <c r="L6">
+        <v>357</v>
+      </c>
+      <c r="M6">
+        <v>362</v>
+      </c>
+      <c r="N6">
+        <v>355</v>
+      </c>
+      <c r="O6">
+        <v>361</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>357.6</v>
+      </c>
+      <c r="Q6" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="R6" s="35">
+        <v>350</v>
+      </c>
+      <c r="S6">
+        <v>49</v>
+      </c>
+      <c r="T6">
+        <v>356</v>
+      </c>
+      <c r="U6">
+        <v>355</v>
+      </c>
+      <c r="V6">
+        <v>364</v>
+      </c>
+      <c r="W6">
+        <v>356</v>
+      </c>
+      <c r="X6">
+        <v>364</v>
+      </c>
+      <c r="Y6">
+        <f>AVERAGE(T6:X6)</f>
+        <v>359</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>347.62493258408227</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="1"/>
+        <v>355.45431251558244</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="2"/>
+        <v>344.54568748441756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>165</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C7" t="s">
-        <v>66</v>
+      <c r="C7" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>350</v>
+      </c>
+      <c r="L7">
+        <v>353</v>
+      </c>
+      <c r="M7">
+        <v>356</v>
+      </c>
+      <c r="N7">
+        <v>353</v>
+      </c>
+      <c r="O7">
+        <v>357</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>353.8</v>
+      </c>
+      <c r="S7">
+        <v>50</v>
+      </c>
+      <c r="T7">
+        <v>351</v>
+      </c>
+      <c r="U7">
+        <v>350</v>
+      </c>
+      <c r="V7">
+        <v>359</v>
+      </c>
+      <c r="W7">
+        <v>351</v>
+      </c>
+      <c r="X7">
+        <v>359</v>
+      </c>
+      <c r="Y7">
+        <f>AVERAGE(T7:X7)</f>
+        <v>354</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>349.10669727662054</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>355.6057003924584</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="2"/>
+        <v>344.3942996075416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>166</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="C8">
+        <f>$B$4</f>
+        <v>0.23243121929008978</v>
+      </c>
+      <c r="D8">
+        <f>$B$5</f>
+        <v>3.1249098165539344</v>
+      </c>
+      <c r="E8">
+        <f>D8*(C8/(2*B8^2))^(1/2)</f>
+        <v>2.1305891761285674</v>
+      </c>
+      <c r="F8">
+        <f>D8+1.166*(B8*C8)^0.5-(2*B8^2/C8)^0.5</f>
+        <v>2.0557158922452916</v>
+      </c>
+      <c r="G8">
+        <f>_xlfn.NORM.DIST(F8,0,1,0)</f>
+        <v>4.8222843048672359E-2</v>
+      </c>
+      <c r="H8">
+        <f>_xlfn.NORM.DIST(F8,0,1,1)</f>
+        <v>0.98009504541559711</v>
+      </c>
+      <c r="I8">
+        <f>IF(E8&lt;1,-(1/C8)*LN(1-E8)-E8/(4*(1-E8)*B8^2)+3/4,1/(C8*F8)*G8^-1*H8)</f>
+        <v>42.536115711179747</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>351</v>
+      </c>
+      <c r="L8">
+        <v>351</v>
+      </c>
+      <c r="M8">
+        <v>353</v>
+      </c>
+      <c r="N8">
+        <v>351</v>
+      </c>
+      <c r="O8">
+        <v>356</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>352.4</v>
+      </c>
+      <c r="S8">
+        <v>51</v>
+      </c>
+      <c r="T8">
+        <v>352</v>
+      </c>
+      <c r="U8">
+        <v>351</v>
+      </c>
+      <c r="V8">
+        <v>360</v>
+      </c>
+      <c r="W8">
+        <v>351</v>
+      </c>
+      <c r="X8">
+        <v>360</v>
+      </c>
+      <c r="Y8">
+        <f>AVERAGE(T8:X8)</f>
+        <v>354.8</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="3"/>
+        <v>350.4299985704032</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="1"/>
+        <v>355.69300808961503</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="2"/>
+        <v>344.30699191038497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>167</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="C9">
+        <f t="shared" ref="C9:C11" si="4">$B$4</f>
+        <v>0.23243121929008978</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D11" si="5">$B$5</f>
+        <v>3.1249098165539344</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E11" si="6">D9*(C9/(2*B9^2))^(1/2)</f>
+        <v>1.0652945880642837</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F11" si="7">D9+1.166*(B9*C9)^0.5-(2*B9^2/C9)^0.5</f>
+        <v>0.75367526364972015</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G11" si="8">_xlfn.NORM.DIST(F9,0,1,0)</f>
+        <v>0.30030647732146876</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H11" si="9">_xlfn.NORM.DIST(F9,0,1,1)</f>
+        <v>0.77447788063290701</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I11" si="10">IF(E9&lt;1,-(1/C9)*LN(1-E9)-E9/(4*(1-E9)*B9^2)+3/4,1/(C9*F9)*G9^-1*H9)</f>
+        <v>14.721958768173613</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>351</v>
+      </c>
+      <c r="L9">
+        <v>352</v>
+      </c>
+      <c r="M9">
+        <v>360</v>
+      </c>
+      <c r="N9">
+        <v>353</v>
+      </c>
+      <c r="O9">
+        <v>362</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>355.6</v>
+      </c>
+      <c r="S9">
+        <v>52</v>
+      </c>
+      <c r="T9">
+        <v>355</v>
+      </c>
+      <c r="U9">
+        <v>352</v>
+      </c>
+      <c r="V9">
+        <v>362</v>
+      </c>
+      <c r="W9">
+        <v>354</v>
+      </c>
+      <c r="X9">
+        <v>362</v>
+      </c>
+      <c r="Y9">
+        <f>AVERAGE(T9:X9)</f>
+        <v>357</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="3"/>
+        <v>351.95707201342196</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="1"/>
+        <v>355.74382522154445</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="2"/>
+        <v>344.25617477845555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>168</v>
       </c>
       <c r="B10">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>0.23243121929008978</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="5"/>
+        <v>3.1249098165539344</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="6"/>
+        <v>0.71019639204285578</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="7"/>
+        <v>-0.58667439087168161</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="8"/>
+        <v>0.3358697128281809</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="9"/>
+        <v>0.27871120515544678</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="10"/>
+        <v>5.806390606293089</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>352</v>
+      </c>
+      <c r="L10">
+        <v>350</v>
+      </c>
+      <c r="M10">
+        <v>357</v>
+      </c>
+      <c r="N10">
+        <v>350</v>
+      </c>
+      <c r="O10">
+        <v>357</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>353.2</v>
+      </c>
+      <c r="S10">
+        <v>53</v>
+      </c>
+      <c r="T10">
+        <v>349</v>
+      </c>
+      <c r="U10">
+        <v>347</v>
+      </c>
+      <c r="V10">
+        <v>357</v>
+      </c>
+      <c r="W10">
+        <v>348</v>
+      </c>
+      <c r="X10">
+        <v>358</v>
+      </c>
+      <c r="Y10">
+        <f>AVERAGE(T10:X10)</f>
+        <v>351.8</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="3"/>
+        <v>351.92056357382592</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="1"/>
+        <v>355.77355535294885</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="2"/>
+        <v>344.22644464705115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>169</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>0.23243121929008978</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>3.1249098165539344</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="6"/>
+        <v>0.53264729403214184</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="7"/>
+        <v>-1.9468542564109463</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="8"/>
+        <v>5.9961098758501037E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="9"/>
+        <v>2.5776105041290735E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="10"/>
+        <v>3.9514396130233456</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>353</v>
+      </c>
+      <c r="L11">
+        <v>353</v>
+      </c>
+      <c r="M11">
+        <v>359</v>
+      </c>
+      <c r="N11">
+        <v>352</v>
+      </c>
+      <c r="O11">
+        <v>358</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="S11">
+        <v>54</v>
+      </c>
+      <c r="T11">
+        <v>350</v>
+      </c>
+      <c r="U11">
+        <v>349</v>
+      </c>
+      <c r="V11">
+        <v>359</v>
+      </c>
+      <c r="W11">
+        <v>350</v>
+      </c>
+      <c r="X11">
+        <v>359</v>
+      </c>
+      <c r="Y11">
+        <f>AVERAGE(T11:X11)</f>
+        <v>353.4</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>352.26443078622373</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="1"/>
+        <v>355.79099976036076</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="2"/>
+        <v>344.20900023963924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>353</v>
+      </c>
+      <c r="L12">
+        <v>353</v>
+      </c>
+      <c r="M12">
+        <v>355</v>
+      </c>
+      <c r="N12">
+        <v>351</v>
+      </c>
+      <c r="O12">
+        <v>360</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>354.4</v>
+      </c>
+      <c r="S12">
+        <v>55</v>
+      </c>
+      <c r="T12">
+        <v>349</v>
+      </c>
+      <c r="U12">
+        <v>348</v>
+      </c>
+      <c r="V12">
+        <v>357</v>
+      </c>
+      <c r="W12">
+        <v>349</v>
+      </c>
+      <c r="X12">
+        <v>358</v>
+      </c>
+      <c r="Y12">
+        <f>AVERAGE(T12:X12)</f>
+        <v>352.2</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="3"/>
+        <v>352.24945506002189</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="1"/>
+        <v>355.80125278313545</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="2"/>
+        <v>344.19874721686455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>353</v>
+      </c>
+      <c r="L13">
+        <v>353</v>
+      </c>
+      <c r="M13">
+        <v>354</v>
+      </c>
+      <c r="N13">
+        <v>351</v>
+      </c>
+      <c r="O13">
+        <v>359</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>354</v>
+      </c>
+      <c r="S13">
+        <v>56</v>
+      </c>
+      <c r="T13">
+        <v>348</v>
+      </c>
+      <c r="U13">
+        <v>347</v>
+      </c>
+      <c r="V13">
+        <v>348</v>
+      </c>
+      <c r="W13">
+        <v>349</v>
+      </c>
+      <c r="X13">
+        <v>351</v>
+      </c>
+      <c r="Y13">
+        <f>AVERAGE(T13:X13)</f>
+        <v>348.6</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="3"/>
+        <v>351.40120777067659</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="1"/>
+        <v>355.80728499854229</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="2"/>
+        <v>344.19271500145771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>349</v>
+      </c>
+      <c r="L14">
+        <v>350</v>
+      </c>
+      <c r="M14">
+        <v>359</v>
+      </c>
+      <c r="N14">
+        <v>352</v>
+      </c>
+      <c r="O14">
+        <v>356</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>353.2</v>
+      </c>
+      <c r="S14">
+        <v>57</v>
+      </c>
+      <c r="T14">
+        <v>348</v>
+      </c>
+      <c r="U14">
+        <v>347</v>
+      </c>
+      <c r="V14">
+        <v>349</v>
+      </c>
+      <c r="W14">
+        <v>350</v>
+      </c>
+      <c r="X14">
+        <v>351</v>
+      </c>
+      <c r="Y14">
+        <f>AVERAGE(T14:X14)</f>
+        <v>349</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>350.84309212076943</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="1"/>
+        <v>355.81083601814407</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="2"/>
+        <v>344.18916398185593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>350</v>
+      </c>
+      <c r="L15">
+        <v>351</v>
+      </c>
+      <c r="M15">
+        <v>361</v>
+      </c>
+      <c r="N15">
+        <v>350</v>
+      </c>
+      <c r="O15">
+        <v>359</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>354.2</v>
+      </c>
+      <c r="S15">
+        <v>58</v>
+      </c>
+      <c r="T15">
+        <v>345</v>
+      </c>
+      <c r="U15">
+        <v>346</v>
+      </c>
+      <c r="V15">
+        <v>355</v>
+      </c>
+      <c r="W15">
+        <v>346</v>
+      </c>
+      <c r="X15">
+        <v>355</v>
+      </c>
+      <c r="Y15">
+        <f>AVERAGE(T15:X15)</f>
+        <v>349.4</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="3"/>
+        <v>350.50767245959105</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>355.81292712785267</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="2"/>
+        <v>344.18707287214733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>349</v>
+      </c>
+      <c r="L16">
+        <v>351</v>
+      </c>
+      <c r="M16">
+        <v>360</v>
+      </c>
+      <c r="N16">
+        <v>351</v>
+      </c>
+      <c r="O16">
+        <v>358</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>353.8</v>
+      </c>
+      <c r="S16">
+        <v>59</v>
+      </c>
+      <c r="T16">
+        <v>343</v>
+      </c>
+      <c r="U16">
+        <v>346</v>
+      </c>
+      <c r="V16">
+        <v>356</v>
+      </c>
+      <c r="W16">
+        <v>346</v>
+      </c>
+      <c r="X16">
+        <v>356</v>
+      </c>
+      <c r="Y16">
+        <f>AVERAGE(T16:X16)</f>
+        <v>349.4</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="3"/>
+        <v>350.25021479923424</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="1"/>
+        <v>355.81415877780336</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="2"/>
+        <v>344.18584122219664</v>
+      </c>
+    </row>
+    <row r="17" spans="10:28">
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>351</v>
+      </c>
+      <c r="L17">
+        <v>351</v>
+      </c>
+      <c r="M17">
+        <v>360</v>
+      </c>
+      <c r="N17">
+        <v>351</v>
+      </c>
+      <c r="O17">
+        <v>360</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>354.6</v>
+      </c>
+      <c r="S17">
+        <v>60</v>
+      </c>
+      <c r="T17">
+        <v>348</v>
+      </c>
+      <c r="U17">
+        <v>350</v>
+      </c>
+      <c r="V17">
+        <v>359</v>
+      </c>
+      <c r="W17">
+        <v>349</v>
+      </c>
+      <c r="X17">
+        <v>357</v>
+      </c>
+      <c r="Y17">
+        <f>AVERAGE(T17:X17)</f>
+        <v>352.6</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>350.79637823851806</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="1"/>
+        <v>355.81488429682059</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="2"/>
+        <v>344.18511570317941</v>
+      </c>
+    </row>
+    <row r="18" spans="10:28">
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>349</v>
+      </c>
+      <c r="L18">
+        <v>350</v>
+      </c>
+      <c r="M18">
+        <v>359</v>
+      </c>
+      <c r="N18">
+        <v>351</v>
+      </c>
+      <c r="O18">
+        <v>357</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>353.2</v>
+      </c>
+      <c r="S18">
+        <v>61</v>
+      </c>
+      <c r="T18">
+        <v>350</v>
+      </c>
+      <c r="U18">
+        <v>351</v>
+      </c>
+      <c r="V18">
+        <v>360</v>
+      </c>
+      <c r="W18">
+        <v>350</v>
+      </c>
+      <c r="X18">
+        <v>355</v>
+      </c>
+      <c r="Y18">
+        <f>AVERAGE(T18:X18)</f>
+        <v>353.2</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>351.35505497525151</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="1"/>
+        <v>355.81531170256102</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="2"/>
+        <v>344.18468829743898</v>
+      </c>
+    </row>
+    <row r="19" spans="10:28">
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>369</v>
+      </c>
+      <c r="L19">
+        <v>366</v>
+      </c>
+      <c r="M19">
+        <v>374</v>
+      </c>
+      <c r="N19">
+        <v>369</v>
+      </c>
+      <c r="O19">
+        <v>374</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>370.4</v>
+      </c>
+      <c r="S19">
+        <v>62</v>
+      </c>
+      <c r="T19">
+        <v>350</v>
+      </c>
+      <c r="U19">
+        <v>351</v>
+      </c>
+      <c r="V19">
+        <v>359</v>
+      </c>
+      <c r="W19">
+        <v>351</v>
+      </c>
+      <c r="X19">
+        <v>354</v>
+      </c>
+      <c r="Y19">
+        <f>AVERAGE(T19:X19)</f>
+        <v>353</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="3"/>
+        <v>351.73739155301894</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="1"/>
+        <v>355.81556349900558</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="2"/>
+        <v>344.18443650099442</v>
+      </c>
+    </row>
+    <row r="20" spans="10:28">
+      <c r="J20">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>356</v>
+      </c>
+      <c r="L20">
+        <v>351</v>
+      </c>
+      <c r="M20">
+        <v>361</v>
+      </c>
+      <c r="N20">
+        <v>357</v>
+      </c>
+      <c r="O20">
+        <v>361</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>357.2</v>
+      </c>
+      <c r="S20">
+        <v>63</v>
+      </c>
+      <c r="T20">
+        <v>348</v>
+      </c>
+      <c r="U20">
+        <v>347</v>
+      </c>
+      <c r="V20">
+        <v>356</v>
+      </c>
+      <c r="W20">
+        <v>344</v>
+      </c>
+      <c r="X20">
+        <v>355</v>
+      </c>
+      <c r="Y20">
+        <f>AVERAGE(T20:X20)</f>
+        <v>350</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>351.33356751596642</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="1"/>
+        <v>355.81571184275697</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="2"/>
+        <v>344.18428815724303</v>
+      </c>
+    </row>
+    <row r="21" spans="10:28">
+      <c r="J21">
+        <v>19</v>
+      </c>
+      <c r="K21">
+        <v>355</v>
+      </c>
+      <c r="L21">
+        <v>354</v>
+      </c>
+      <c r="M21">
+        <v>366</v>
+      </c>
+      <c r="N21">
+        <v>356</v>
+      </c>
+      <c r="O21">
+        <v>366</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>359.4</v>
+      </c>
+      <c r="S21">
+        <v>64</v>
+      </c>
+      <c r="T21">
+        <v>347</v>
+      </c>
+      <c r="U21">
+        <v>349</v>
+      </c>
+      <c r="V21">
+        <v>358</v>
+      </c>
+      <c r="W21">
+        <v>348</v>
+      </c>
+      <c r="X21">
+        <v>357</v>
+      </c>
+      <c r="Y21">
+        <f>AVERAGE(T21:X21)</f>
+        <v>351.8</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="3"/>
+        <v>351.44198098694687</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="1"/>
+        <v>355.81579923946208</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="2"/>
+        <v>344.18420076053792</v>
+      </c>
+    </row>
+    <row r="22" spans="10:28">
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>353</v>
+      </c>
+      <c r="L22">
+        <v>352</v>
+      </c>
+      <c r="M22">
+        <v>363</v>
+      </c>
+      <c r="N22">
+        <v>353</v>
+      </c>
+      <c r="O22">
+        <v>362</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>356.6</v>
+      </c>
+      <c r="S22">
+        <v>65</v>
+      </c>
+      <c r="T22">
+        <v>349</v>
+      </c>
+      <c r="U22">
+        <v>348</v>
+      </c>
+      <c r="V22">
+        <v>359</v>
+      </c>
+      <c r="W22">
+        <v>349</v>
+      </c>
+      <c r="X22">
+        <v>357</v>
+      </c>
+      <c r="Y22">
+        <f>AVERAGE(T22:X22)</f>
+        <v>352.4</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="3"/>
+        <v>351.66465451425387</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="1"/>
+        <v>355.81585072965026</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="2"/>
+        <v>344.18414927034974</v>
+      </c>
+    </row>
+    <row r="23" spans="10:28">
+      <c r="J23">
+        <v>21</v>
+      </c>
+      <c r="K23">
+        <v>354</v>
+      </c>
+      <c r="L23">
+        <v>353</v>
+      </c>
+      <c r="M23">
+        <v>364</v>
+      </c>
+      <c r="N23">
+        <v>354</v>
+      </c>
+      <c r="O23">
+        <v>364</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>357.8</v>
+      </c>
+      <c r="S23">
+        <v>66</v>
+      </c>
+      <c r="T23">
+        <v>347</v>
+      </c>
+      <c r="U23">
+        <v>347</v>
+      </c>
+      <c r="V23">
+        <v>343</v>
+      </c>
+      <c r="W23">
+        <v>341</v>
+      </c>
+      <c r="X23">
+        <v>343</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" ref="Y23:Y42" si="11">AVERAGE(T23:X23)</f>
+        <v>344.2</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="3"/>
+        <v>349.92963576392651</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="1"/>
+        <v>355.81588106549054</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="2"/>
+        <v>344.18411893450946</v>
+      </c>
+    </row>
+    <row r="24" spans="10:28">
+      <c r="J24">
+        <v>22</v>
+      </c>
+      <c r="K24">
+        <v>354</v>
+      </c>
+      <c r="L24">
+        <v>354</v>
+      </c>
+      <c r="M24">
+        <v>360</v>
+      </c>
+      <c r="N24">
+        <v>356</v>
+      </c>
+      <c r="O24">
+        <v>360</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>356.8</v>
+      </c>
+      <c r="S24">
+        <v>67</v>
+      </c>
+      <c r="T24">
+        <v>348</v>
+      </c>
+      <c r="U24">
+        <v>347</v>
+      </c>
+      <c r="V24">
+        <v>356</v>
+      </c>
+      <c r="W24">
+        <v>346</v>
+      </c>
+      <c r="X24">
+        <v>355</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="11"/>
+        <v>350.4</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="3"/>
+        <v>350.0389630968275</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="1"/>
+        <v>355.81589893813572</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="2"/>
+        <v>344.18410106186428</v>
+      </c>
+    </row>
+    <row r="25" spans="10:28">
+      <c r="J25">
+        <v>23</v>
+      </c>
+      <c r="K25">
+        <v>358</v>
+      </c>
+      <c r="L25">
+        <v>356</v>
+      </c>
+      <c r="M25">
+        <v>366</v>
+      </c>
+      <c r="N25">
+        <v>357</v>
+      </c>
+      <c r="O25">
+        <v>366</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>360.6</v>
+      </c>
+      <c r="S25">
+        <v>68</v>
+      </c>
+      <c r="T25">
+        <v>345</v>
+      </c>
+      <c r="U25">
+        <v>346</v>
+      </c>
+      <c r="V25">
+        <v>355</v>
+      </c>
+      <c r="W25">
+        <v>347</v>
+      </c>
+      <c r="X25">
+        <v>353</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="11"/>
+        <v>349.2</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="3"/>
+        <v>349.8439618812925</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="1"/>
+        <v>355.81590946799042</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="2"/>
+        <v>344.18409053200958</v>
+      </c>
+    </row>
+    <row r="26" spans="10:28">
+      <c r="J26">
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <v>358</v>
+      </c>
+      <c r="L26">
+        <v>355</v>
+      </c>
+      <c r="M26">
+        <v>365</v>
+      </c>
+      <c r="N26">
+        <v>357</v>
+      </c>
+      <c r="O26">
+        <v>366</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>360.2</v>
+      </c>
+      <c r="S26">
+        <v>69</v>
+      </c>
+      <c r="T26">
+        <v>345</v>
+      </c>
+      <c r="U26">
+        <v>345</v>
+      </c>
+      <c r="V26">
+        <v>353</v>
+      </c>
+      <c r="W26">
+        <v>345</v>
+      </c>
+      <c r="X26">
+        <v>353</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="11"/>
+        <v>348.2</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="3"/>
+        <v>349.46185381675724</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="1"/>
+        <v>355.81591567176997</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="2"/>
+        <v>344.18408432823003</v>
+      </c>
+    </row>
+    <row r="27" spans="10:28">
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>356</v>
+      </c>
+      <c r="L27">
+        <v>353</v>
+      </c>
+      <c r="M27">
+        <v>365</v>
+      </c>
+      <c r="N27">
+        <v>356</v>
+      </c>
+      <c r="O27">
+        <v>364</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>358.8</v>
+      </c>
+      <c r="S27">
+        <v>70</v>
+      </c>
+      <c r="T27">
+        <v>347</v>
+      </c>
+      <c r="U27">
+        <v>345</v>
+      </c>
+      <c r="V27">
+        <v>353</v>
+      </c>
+      <c r="W27">
+        <v>345</v>
+      </c>
+      <c r="X27">
+        <v>353</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="11"/>
+        <v>348.6</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="3"/>
+        <v>349.26153208327855</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="1"/>
+        <v>355.81591932679703</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="2"/>
+        <v>344.18408067320297</v>
+      </c>
+    </row>
+    <row r="28" spans="10:28">
+      <c r="J28">
+        <v>26</v>
+      </c>
+      <c r="K28">
+        <v>333</v>
+      </c>
+      <c r="L28">
+        <v>346</v>
+      </c>
+      <c r="M28">
+        <v>338</v>
+      </c>
+      <c r="N28">
+        <v>335</v>
+      </c>
+      <c r="O28">
+        <v>338</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>338</v>
+      </c>
+      <c r="S28">
+        <v>71</v>
+      </c>
+      <c r="T28">
+        <v>349</v>
+      </c>
+      <c r="U28">
+        <v>346</v>
+      </c>
+      <c r="V28">
+        <v>356</v>
+      </c>
+      <c r="W28">
+        <v>347</v>
+      </c>
+      <c r="X28">
+        <v>356</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="11"/>
+        <v>350.8</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="3"/>
+        <v>349.61912005700083</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="1"/>
+        <v>355.81592148019837</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="2"/>
+        <v>344.18407851980163</v>
+      </c>
+    </row>
+    <row r="29" spans="10:28">
+      <c r="J29">
+        <v>27</v>
+      </c>
+      <c r="K29">
+        <v>351</v>
+      </c>
+      <c r="L29">
+        <v>349</v>
+      </c>
+      <c r="M29">
+        <v>361</v>
+      </c>
+      <c r="N29">
+        <v>351</v>
+      </c>
+      <c r="O29">
+        <v>361</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>354.6</v>
+      </c>
+      <c r="S29">
+        <v>72</v>
+      </c>
+      <c r="T29">
+        <v>342</v>
+      </c>
+      <c r="U29">
+        <v>342</v>
+      </c>
+      <c r="V29">
+        <v>347</v>
+      </c>
+      <c r="W29">
+        <v>340</v>
+      </c>
+      <c r="X29">
+        <v>348</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="11"/>
+        <v>343.8</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="3"/>
+        <v>348.26657488695673</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="1"/>
+        <v>355.81592274889988</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="2"/>
+        <v>344.18407725110012</v>
+      </c>
+    </row>
+    <row r="30" spans="10:28">
+      <c r="J30">
+        <v>28</v>
+      </c>
+      <c r="K30">
+        <v>350</v>
+      </c>
+      <c r="L30">
+        <v>349</v>
+      </c>
+      <c r="M30">
+        <v>348</v>
+      </c>
+      <c r="N30">
+        <v>349</v>
+      </c>
+      <c r="O30">
+        <v>350</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>349.2</v>
+      </c>
+      <c r="S30">
+        <v>73</v>
+      </c>
+      <c r="T30">
+        <v>347</v>
+      </c>
+      <c r="U30">
+        <v>345</v>
+      </c>
+      <c r="V30">
+        <v>355</v>
+      </c>
+      <c r="W30">
+        <v>345</v>
+      </c>
+      <c r="X30">
+        <v>355</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="11"/>
+        <v>349.4</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="3"/>
+        <v>348.53001826795537</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="1"/>
+        <v>355.81592349637026</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="2"/>
+        <v>344.18407650362974</v>
+      </c>
+    </row>
+    <row r="31" spans="10:28">
+      <c r="J31">
+        <v>29</v>
+      </c>
+      <c r="K31">
+        <v>352</v>
+      </c>
+      <c r="L31">
+        <v>352</v>
+      </c>
+      <c r="M31">
+        <v>364</v>
+      </c>
+      <c r="N31">
+        <v>354</v>
+      </c>
+      <c r="O31">
+        <v>361</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>356.6</v>
+      </c>
+      <c r="S31">
+        <v>74</v>
+      </c>
+      <c r="T31">
+        <v>346</v>
+      </c>
+      <c r="U31">
+        <v>344</v>
+      </c>
+      <c r="V31">
+        <v>354</v>
+      </c>
+      <c r="W31">
+        <v>344</v>
+      </c>
+      <c r="X31">
+        <v>353</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="11"/>
+        <v>348.2</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="3"/>
+        <v>348.45331171954649</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="1"/>
+        <v>355.81592393675123</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="2"/>
+        <v>344.18407606324877</v>
+      </c>
+    </row>
+    <row r="32" spans="10:28">
+      <c r="J32">
+        <v>30</v>
+      </c>
+      <c r="K32">
+        <v>351</v>
+      </c>
+      <c r="L32">
+        <v>357</v>
+      </c>
+      <c r="M32">
+        <v>363</v>
+      </c>
+      <c r="N32">
+        <v>353</v>
+      </c>
+      <c r="O32">
+        <v>361</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+      <c r="S32">
+        <v>75</v>
+      </c>
+      <c r="T32">
+        <v>344</v>
+      </c>
+      <c r="U32">
+        <v>342</v>
+      </c>
+      <c r="V32">
+        <v>353</v>
+      </c>
+      <c r="W32">
+        <v>343</v>
+      </c>
+      <c r="X32">
+        <v>352</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="11"/>
+        <v>346.8</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="3"/>
+        <v>348.06903046070568</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="1"/>
+        <v>355.81592419620688</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="2"/>
+        <v>344.18407580379312</v>
+      </c>
+    </row>
+    <row r="33" spans="10:28">
+      <c r="J33">
+        <v>31</v>
+      </c>
+      <c r="K33">
+        <v>352</v>
+      </c>
+      <c r="L33">
+        <v>352</v>
+      </c>
+      <c r="M33">
+        <v>364</v>
+      </c>
+      <c r="N33">
+        <v>354</v>
+      </c>
+      <c r="O33">
+        <v>362</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>356.8</v>
+      </c>
+      <c r="S33">
+        <v>76</v>
+      </c>
+      <c r="T33">
+        <v>347</v>
+      </c>
+      <c r="U33">
+        <v>347</v>
+      </c>
+      <c r="V33">
+        <v>347</v>
+      </c>
+      <c r="W33">
+        <v>357</v>
+      </c>
+      <c r="X33">
+        <v>357</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="11"/>
+        <v>351</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="3"/>
+        <v>348.75027928442597</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="1"/>
+        <v>355.81592434906827</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="2"/>
+        <v>344.18407565093173</v>
+      </c>
+    </row>
+    <row r="34" spans="10:28">
+      <c r="J34">
+        <v>32</v>
+      </c>
+      <c r="K34">
+        <v>349</v>
+      </c>
+      <c r="L34">
+        <v>351</v>
+      </c>
+      <c r="M34">
+        <v>363</v>
+      </c>
+      <c r="N34">
+        <v>352</v>
+      </c>
+      <c r="O34">
+        <v>362</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>355.4</v>
+      </c>
+      <c r="S34">
+        <v>77</v>
+      </c>
+      <c r="T34">
+        <v>345</v>
+      </c>
+      <c r="U34">
+        <v>343</v>
+      </c>
+      <c r="V34">
+        <v>352</v>
+      </c>
+      <c r="W34">
+        <v>343</v>
+      </c>
+      <c r="X34">
+        <v>351</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="11"/>
+        <v>346.8</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="3"/>
+        <v>348.29697349239063</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="1"/>
+        <v>355.81592443912831</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="2"/>
+        <v>344.18407556087169</v>
+      </c>
+    </row>
+    <row r="35" spans="10:28">
+      <c r="J35">
+        <v>33</v>
+      </c>
+      <c r="K35">
+        <v>349</v>
+      </c>
+      <c r="L35">
+        <v>351</v>
+      </c>
+      <c r="M35">
+        <v>362</v>
+      </c>
+      <c r="N35">
+        <v>351</v>
+      </c>
+      <c r="O35">
+        <v>361</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>354.8</v>
+      </c>
+      <c r="S35">
+        <v>78</v>
+      </c>
+      <c r="T35">
+        <v>347</v>
+      </c>
+      <c r="U35">
+        <v>345</v>
+      </c>
+      <c r="V35">
+        <v>356</v>
+      </c>
+      <c r="W35">
+        <v>345</v>
+      </c>
+      <c r="X35">
+        <v>355</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="11"/>
+        <v>349.6</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="3"/>
+        <v>348.5998375323216</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="1"/>
+        <v>355.81592449218829</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="2"/>
+        <v>344.18407550781171</v>
+      </c>
+    </row>
+    <row r="36" spans="10:28">
+      <c r="J36">
+        <v>34</v>
+      </c>
+      <c r="K36">
+        <v>347</v>
+      </c>
+      <c r="L36">
+        <v>348</v>
+      </c>
+      <c r="M36">
+        <v>361</v>
+      </c>
+      <c r="N36">
+        <v>349</v>
+      </c>
+      <c r="O36">
+        <v>358</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>352.6</v>
+      </c>
+      <c r="S36">
+        <v>79</v>
+      </c>
+      <c r="T36">
+        <v>347</v>
+      </c>
+      <c r="U36">
+        <v>346</v>
+      </c>
+      <c r="V36">
+        <v>357</v>
+      </c>
+      <c r="W36">
+        <v>347</v>
+      </c>
+      <c r="X36">
+        <v>356</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="11"/>
+        <v>350.6</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="3"/>
+        <v>349.06473773346238</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="1"/>
+        <v>355.81592452344921</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="2"/>
+        <v>344.18407547655079</v>
+      </c>
+    </row>
+    <row r="37" spans="10:28">
+      <c r="J37">
+        <v>35</v>
+      </c>
+      <c r="K37">
+        <v>347</v>
+      </c>
+      <c r="L37">
+        <v>348</v>
+      </c>
+      <c r="M37">
+        <v>360</v>
+      </c>
+      <c r="N37">
+        <v>349</v>
+      </c>
+      <c r="O37">
+        <v>351</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>351</v>
+      </c>
+      <c r="S37">
+        <v>80</v>
+      </c>
+      <c r="T37">
+        <v>349</v>
+      </c>
+      <c r="U37">
+        <v>346</v>
+      </c>
+      <c r="V37">
+        <v>357</v>
+      </c>
+      <c r="W37">
+        <v>346</v>
+      </c>
+      <c r="X37">
+        <v>357</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="11"/>
+        <v>351</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="3"/>
+        <v>349.5145531017198</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="1"/>
+        <v>355.81592454186693</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="2"/>
+        <v>344.18407545813307</v>
+      </c>
+    </row>
+    <row r="38" spans="10:28">
+      <c r="J38">
+        <v>36</v>
+      </c>
+      <c r="K38">
+        <v>352</v>
+      </c>
+      <c r="L38">
+        <v>351</v>
+      </c>
+      <c r="M38">
+        <v>354</v>
+      </c>
+      <c r="N38">
+        <v>349</v>
+      </c>
+      <c r="O38">
+        <v>350</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>351.2</v>
+      </c>
+      <c r="S38">
+        <v>81</v>
+      </c>
+      <c r="T38">
+        <v>343</v>
+      </c>
+      <c r="U38">
+        <v>347</v>
+      </c>
+      <c r="V38">
+        <v>355</v>
+      </c>
+      <c r="W38">
+        <v>347</v>
+      </c>
+      <c r="X38">
+        <v>355</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="11"/>
+        <v>349.4</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="3"/>
+        <v>349.48792738461356</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="1"/>
+        <v>355.81592455271795</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="2"/>
+        <v>344.18407544728205</v>
+      </c>
+    </row>
+    <row r="39" spans="10:28">
+      <c r="J39">
+        <v>37</v>
+      </c>
+      <c r="K39">
+        <v>347</v>
+      </c>
+      <c r="L39">
+        <v>343</v>
+      </c>
+      <c r="M39">
+        <v>353</v>
+      </c>
+      <c r="N39">
+        <v>344</v>
+      </c>
+      <c r="O39">
+        <v>353</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+      <c r="S39">
+        <v>82</v>
+      </c>
+      <c r="T39">
+        <v>347</v>
+      </c>
+      <c r="U39">
+        <v>348</v>
+      </c>
+      <c r="V39">
+        <v>358</v>
+      </c>
+      <c r="W39">
+        <v>347</v>
+      </c>
+      <c r="X39">
+        <v>357</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="11"/>
+        <v>351.4</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="3"/>
+        <v>349.93235275397905</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="1"/>
+        <v>355.81592455911095</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="2"/>
+        <v>344.18407544088905</v>
+      </c>
+    </row>
+    <row r="40" spans="10:28">
+      <c r="J40">
+        <v>38</v>
+      </c>
+      <c r="K40">
+        <v>354</v>
+      </c>
+      <c r="L40">
+        <v>354</v>
+      </c>
+      <c r="M40">
+        <v>362</v>
+      </c>
+      <c r="N40">
+        <v>355</v>
+      </c>
+      <c r="O40">
+        <v>364</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>357.8</v>
+      </c>
+      <c r="S40">
+        <v>83</v>
+      </c>
+      <c r="T40">
+        <v>344</v>
+      </c>
+      <c r="U40">
+        <v>344</v>
+      </c>
+      <c r="V40">
+        <v>346</v>
+      </c>
+      <c r="W40">
+        <v>344</v>
+      </c>
+      <c r="X40">
+        <v>348</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="11"/>
+        <v>345.2</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="3"/>
+        <v>348.83240623326088</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="1"/>
+        <v>355.81592456287746</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="2"/>
+        <v>344.18407543712254</v>
+      </c>
+    </row>
+    <row r="41" spans="10:28">
+      <c r="J41">
+        <v>39</v>
+      </c>
+      <c r="K41">
+        <v>352</v>
+      </c>
+      <c r="L41">
+        <v>350</v>
+      </c>
+      <c r="M41">
+        <v>360</v>
+      </c>
+      <c r="N41">
+        <v>350</v>
+      </c>
+      <c r="O41">
+        <v>361</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>354.6</v>
+      </c>
+      <c r="S41">
+        <v>84</v>
+      </c>
+      <c r="T41">
+        <v>351</v>
+      </c>
+      <c r="U41">
+        <v>350</v>
+      </c>
+      <c r="V41">
+        <v>359</v>
+      </c>
+      <c r="W41">
+        <v>349</v>
+      </c>
+      <c r="X41">
+        <v>358</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="11"/>
+        <v>353.4</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="3"/>
+        <v>349.89405762168587</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="1"/>
+        <v>355.81592456509657</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="2"/>
+        <v>344.18407543490343</v>
+      </c>
+    </row>
+    <row r="42" spans="10:28">
+      <c r="J42">
+        <v>40</v>
+      </c>
+      <c r="K42">
+        <v>350</v>
+      </c>
+      <c r="L42">
+        <v>350</v>
+      </c>
+      <c r="M42">
+        <v>352</v>
+      </c>
+      <c r="N42">
+        <v>358</v>
+      </c>
+      <c r="O42">
+        <v>352</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>352.4</v>
+      </c>
+      <c r="S42">
+        <v>85</v>
+      </c>
+      <c r="T42">
+        <v>345</v>
+      </c>
+      <c r="U42">
+        <v>345</v>
+      </c>
+      <c r="V42">
+        <v>353</v>
+      </c>
+      <c r="W42">
+        <v>344</v>
+      </c>
+      <c r="X42">
+        <v>353</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="11"/>
+        <v>348</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="3"/>
+        <v>349.45381949927173</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="1"/>
+        <v>355.81592456640396</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="2"/>
+        <v>344.18407543359604</v>
+      </c>
+    </row>
+    <row r="43" spans="10:28">
+      <c r="J43">
+        <v>41</v>
+      </c>
+      <c r="K43">
+        <v>351</v>
+      </c>
+      <c r="L43">
+        <v>350</v>
+      </c>
+      <c r="M43">
+        <v>360</v>
+      </c>
+      <c r="N43">
+        <v>352</v>
+      </c>
+      <c r="O43">
+        <v>360</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>354.6</v>
+      </c>
+    </row>
+    <row r="44" spans="10:28">
+      <c r="J44">
+        <v>42</v>
+      </c>
+      <c r="K44">
+        <v>331</v>
+      </c>
+      <c r="L44">
+        <v>344</v>
+      </c>
+      <c r="M44">
+        <v>336</v>
+      </c>
+      <c r="N44">
+        <v>334</v>
+      </c>
+      <c r="O44">
+        <v>336</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>336.2</v>
+      </c>
+    </row>
+    <row r="45" spans="10:28">
+      <c r="J45">
+        <v>43</v>
+      </c>
+      <c r="K45">
+        <v>348</v>
+      </c>
+      <c r="L45">
+        <v>349</v>
+      </c>
+      <c r="M45">
+        <v>359</v>
+      </c>
+      <c r="N45">
+        <v>349</v>
+      </c>
+      <c r="O45">
+        <v>358</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>352.6</v>
+      </c>
+    </row>
+    <row r="46" spans="10:28">
+      <c r="J46">
+        <v>44</v>
+      </c>
+      <c r="K46">
+        <v>353</v>
+      </c>
+      <c r="L46">
+        <v>351</v>
+      </c>
+      <c r="M46">
+        <v>362</v>
+      </c>
+      <c r="N46">
+        <v>352</v>
+      </c>
+      <c r="O46">
+        <v>362</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47" spans="10:28">
+      <c r="J47">
+        <v>45</v>
+      </c>
+      <c r="K47">
+        <v>351</v>
+      </c>
+      <c r="L47">
+        <v>349</v>
+      </c>
+      <c r="M47">
+        <v>358</v>
+      </c>
+      <c r="N47">
+        <v>351</v>
+      </c>
+      <c r="O47">
+        <v>358</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>353.4</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="S1:Y1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -51456,25 +56112,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:26" ht="27">
-      <c r="B2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="11" t="s">
         <v>42</v>
       </c>
@@ -59186,25 +63842,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:24" ht="27">
-      <c r="A2" s="36"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="11" t="s">
         <v>42</v>
       </c>
@@ -62303,28 +66959,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="38"/>
+      <c r="N1" s="39"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
@@ -62439,13 +67095,13 @@
       <c r="E4">
         <v>354</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
       <c r="K4" t="s">
         <v>100</v>
       </c>
@@ -62521,13 +67177,13 @@
       <c r="E6">
         <v>361</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
       <c r="K6" t="s">
         <v>79</v>
       </c>
